--- a/数据挖掘实战-日语数据 LDA建模/new_data.xlsx
+++ b/数据挖掘实战-日语数据 LDA建模/new_data.xlsx
@@ -772,82 +772,82 @@
 　地震大国での原発のリスクが、改めてあらわになった。政府は、原発の活用に前のめりの姿勢を改めるべきだ。</t>
   </si>
   <si>
-    <t>福島 原発 北西 ある 福島 飯舘 いいたて 妊婦 乳幼児 避難 せる こと 明らか 政府 避難 屋内 退避 指示 いる 半径 キロ 外側 ある これ まで 大気 土壌 調査 放射線 高い 場所 見つかっ いる 政府 いま 現行 避難 地域 広げる 検討 いる 放射 物質 飛散 風向き 地形 影響 受ける 同心円 広がる 限ら ない 飯舘 たち 直面 いる よう 実態 見直し れる だろ 現在 半径 キロ 以内 避難 キロ 圏内 屋内 退避 いる 原子力 委員 防災 指針 沿っ もの 避難 する 放射線 目安 ミリシーベルト だっ 屋内 退避 など 短期 想定 指示 だっ ところが 原発 不安定 状態 長引き 放射 物質 放出 続き かね ない 長期間 さらさ れる 前提 対策 切りかえる ある 対処 新た 浴びる 放射線 積算 ミリシーベルト なる 場合 避難 基準 する 考え方 伝え 国際 放射線 防護 委員 ＩＣＲＰ 原発 事故 など 緊急 考え 計算 目安 もとづく 数値 厳しく なる ので 新しい 基準 使う 避難 地域 なっ ない 地域 新た 対象 なる ところ くる だろ 避難 住民 大きな 負担 強いる なに 最も 住民 ため なる 優先 考え なく なら ない 放射線 による 影響 懸念 れる 乳幼児 妊婦 避難 あげ たい 入院 患者 動い もらう マイナス ある 一方 必需 取り 戻り たい という 住民 希望 切実 だろ その ため きめ細か 指示 求め られる 避難 地域 見直す 一時 帰宅 進める なる 観測 データ 充実 放射 物質 どう 広がる 予測 する 緊急 放射能 影響 予測 ＳＰＥＥＤＩ システム 使っ 濃度 高く なり やすい 地域 割り出し 観測 より する という やり方 あろ ＳＰＥＥＤＩ 先月 公表 だけ 予測 限界 明確 うえ 利用 できる よう する べき ない 現在 放射能 広がり それ による リスク 評価 専門 わかり やすく 説明 する それ 周辺 住民 もちろん 国民 理解 得る ため ますます 大切 なっ</t>
-  </si>
-  <si>
-    <t>原発 エネルギー 政策 抜本 見直し 野田 政権 政権 から 引き継い テーマ ひとつ 野田 首相 政権 方向 踏襲 する 方針 明らか いる 原発 新設 困難 という 認識 示し 老朽 など 危険 高い もの から 中長期 原発 依存 下げ いく 考え 妥当 判断 あり 歓迎 する 定期 検査 稼働 について 厳格 臨む よう 求め たい 原発 事故 絶対 絶対 思考 縛ら 原子力 行政 電力 会社 癒着 生み 情報 流れ 阻ん だり 改革 摘ん だり 実態 浮き彫り 野田 政権 こうした ゆがみ 修正 新しい エネルギー 政策 転換 政治 発揮 なけれ なら ない 問題 どの よう 枠組み 改革 進め いく エネルギー 政策 従来 経済 産業 所管 事務 つとめる 総合 資源 エネルギー 調査 中長期 電源 確保 など 盛り込ん エネルギー 計画 定期 示し 内閣 原子力 専門 による 原子力 委員 ほぼ 原子力 政策 大綱 策定 いる それぞれ ９月 見直し 動き 始める だが どちら 原発 推進 積極 担っ 組織 とりわけ エネルギー 政策 立案 熟知 する 一方 電力 会社 原発 利権 絡ん 政治 役所 ＯＢ しがらみ 強い 改革 なる ほど こうした 勢力 抵抗 予想 もと 公正 判断 下せる 懸念 ある 政権 内閣 官房 新た 関係 閣僚 による エネルギー 環境 会議 設け 政治 主導 改革 進める 姿勢 示し ７月 まとまっ 会議 中間 整理 原発 依存 低減 分散 電力 システム 構築 という 将来 示し うえ 電源 ごと コスト 検証 発電 送電 分離 など 改革 論点 網羅 いる 野田 政権 この 会議 エネルギー 改革 向け 機関 として 明示 べき 知識 意欲 もつ 官僚 専門 集め 態勢 強化 エネルギー 調査 など 既存 組織 その 改革 肉付け する もの する もとより エネルギー 政策 転換 省庁 超え 政治 課題 ある 中間 整理 ある 通り 国民 議論 せる こと 不可欠 据え 野田 首相 官邸 主導 期待 たい</t>
-  </si>
-  <si>
-    <t>かつて ない 原発 事故 起こし 東京電力 どの よう 処理 いく それ 電力 システム 改革 試金石 なる わけ たち 考え方 示し たい 福島 原発 事故 ともなう 巨額 費用 東電 徹底的 負担 せる ほとんど 異論 ある まい しかし とても 追いつか ない だろ 電気 料金 税金 国民 負担 ざる ない これ 東電 処理 現実 政府 いま 進め いる 計画 確認 おこ 経営 陥っ いる 東電 に対し 国費 資本 注入 する こと 既定 路線 電力 供給 滞っ たり 金融 市場 混乱 たり する 避ける ため 措置 ある ところが 東電 分の 株式 経営 責任 負う こと 財務省 から 慎重 いる 将来 財政 負担 つながり かね ない という 理由 から 資金 出す あくまで 当面 こと 民間 企業 として 東電 残し いずれ 返し もらう ―― そんな 思惑 ある 国民 負担 回避 という この 理屈 一見 もっとも らしい 東電 賠償 資金 支援 する ため 施行 原子力 損害 賠償 支援 機構 そうした 考え方 立っ いる だが 長い いま 東電 存続 せる こと シナリオ だろ 東電 から 確実 返済 せる できるだけ 稼い もらわ なけれ なら ない それ 東電 地域 独占 守り 電力 市場 新規 参入 できるだけ 少なく ほう 得策 つまり 電力 改革 まとも つけ ない という こと なる 発電 売却 など 思い切っ リストラ 進ま ない 経営 賠償 できるだけ 抑えよ という 誘因 はたらく 被害 交渉 いま 遅れ かね ない それでも 東電 資金 捻出 する 至難 わざ 費用 ひとつ とっ 溶け 出し 燃料 回収 手法 めど すら 立っ ない ふつう 寿命 迎え 原発 かかる れる ましてや 事故 最終 撤去 まで かかる 総額 単位 膨らむ こと 間違い ない 福島 原発 残り 福島 原発 含めれ 費用 さらに 増える 足元 火力 発電 増強 による 燃料 高騰 経営 ゆさぶる 費用 いくら なる 見当 つか ない 追い込ま れる 東電 新規 投資 手控える だろ 電力 設備 保守 すら 危うく なれ 首都 電力 供給 支障 出る 結局 財政 負担 回避 する ため 東電 利益 確保 せよ する 首都 企業 家庭 法外 料金 値上げ 求め ざる ない もう 一方 国民 負担 覚悟 うえ 経営 握る ルート 今回 事故 責任 一義的 東電 ある 原子力 発電 国策 でも あっ 政府 推進 建設 許可 対策 怠慢 放置 まったく 責任 ない 考える ない はず 薬害 エイズ 肝炎 政策 責任 とっ 被害 救済 賠償 担っ 今回 後始末 として 引き受ける そこ さえ 決めれ 東電 処理 電力 市場 新しい つなげ られる 国有 意味 そこ ある もちろん 国民 負担 最小限 とどめる べき その ため まず 東電 リストラ 徹底 負債 あてる 原資 最大限 ひねり出す ある 東電 実質 債務 超過 状態 本来 なら 市場 ルール に従って 破綻 はたん 処理 れる はず 企業 ある 株式 価値 ゼロ する 東電 剰余 取り崩し ものの ほど 資本 ある 国民 税金 投じ られる 株主 損失 負担 する 金融 機関 債権 放棄 求める 融資 事業 リスク 審査 リスク 見合っ 金利 つける こと 市場 規律 働かせる 金融 役割 かかわら 銀行 東電 条件 資金 提供 地域 独占 電力 会社 あっ 政府 守る という 暗黙 理解 あっ から それ 原発 リスク 過小 評価 こと 裏返し ある 金融 機関 結果 責任 とら なけれ なら ない 社債 東電 担保 付き あり 扱い むずかしい ただ 東電 電気 事業 価値 そのもの 大きく 毀損 きそん いる 担保 目減り 社債 償還 せる 考え方 ある はず 市場 対話 重ね ながら 方法 探る べき られ 資金 被害 賠償 優先 あてる ステップ 進む ため できるだけ 早く 解決 なけれ なら ない もちろん 経営 交代 せる トップ だけ なく 部署 リーダー 社内外 から 改革 ある 人物 つけ 社員 問題 意識 新しい アイデア 引き出す 発電 など 資産 大胆 売却 たり 切り離し たり する 関連 会社 不透明 取引 排除 する 社員 処遇 見直す 企業 年金 破綻 企業 同じ 扱い ＯＢ から 早期 減額 合意 とりつける それでも 足り ない やはり 料金 値上げ 頼ら ざる ない ただし リストラ 徹底 する ぶん 上げ幅 小さく できる はず どちら 選ん 料金 値上げ という 国民 負担 避け られ ない なら 経営 握る ほう いい 明らか 原発 事故 による 損失 総額 現時点 見通す こと むずかしい 電力 改革 進む 事業 乗り換える 企業 家庭 増える だろ 東電 自体 解体 進む ため 電気 料金 による 回収 限界 ある 原発 推進 責任 として 原子力 予算 組み替え つつ 税金 穴埋め 検討 する ある 財源 余裕 ない こと 考えれ 例えば 東電 送電 利用 する こと 課税 どう そう すれ 東電 管内 電気 使う すべて 負担 する こと なる なお 不十分 場合 全国 課税 ベース 広げる 東電 管内 だけ 税率 高く する など 納得 得る 努力 なる だろ できるだけ 日常 生活 経済 影響 少なく する よう 工夫 たい どれ 簡単 ない だが 原発 事故 提起 問題 国民 全員 向き合う しか ない それ 福島 たち 自分 こと 考え 一人ひとり エネルギー 政策 真剣 考える こと つながる</t>
-  </si>
-  <si>
-    <t>年代 原発 ゼロ 目指す ―― 野田 政権 原発 向け 新しい エネルギー 戦略 決め 茨城 研究 初めて 原子 とも ８月 拡大 一途 だっ 日本 原子力 政策 大きな 転換 迎え 稼働 最小限 野田 政権 当初 全廃 慎重 だっ 最終 原発 稼働 ゼロ する 社会 実現 うたっ 原発 抱える 問題 大き 多く 深刻 受け止め いる こと 踏まえ 決断 評価 たい いえ 原発 道筋 明確 なっ いえ ない 戦略 増設 ない 運転 期間 厳格 適用 原子力 規制 委員 認め もの だけ 稼働 という 原則 掲げ いる だが ある 原発 単純 規制 適用 だけ １月 時点 時点 残る 地震 起きる 極めて 高い 地域 ある 浜岡原発 静岡 断層 影響 懸念 れる 原子 など 対応 あいまい まま 電力 需給 原発 事故 から 経験 原発 動かせ 乗り切れる 見通し 立っ 稼働 最小限 抑え 早期 原発 ゼロ どう 達成 する 戦略 盛り込ま あらゆる 政策 資源 投入 早急 する ある そもそも 巨額 コスト かかる 原子力 政府 支援 保護 なし 成り立た ない こうした 保護 優遇 停止 支援 ほか 電源 促進 あるいは 自治体 経済 構造 転換 する ため 制度 組み替え なけれ なら ない ただ 待た 閉める について 電力 会社 経営 影響 緩和 する 手立て だろ 設備 撤去 する まで 専門 技術 人材 欠か ない 戦略 責任 対策 講じる たとえば 原発 特定 法人 集約 管理 する 国有 について 議論 対象 なろ 核燃 サイクル 凍結 問題 原発 かかる 経済 政治 コスト 火力 発電 当面 電源 なり 燃料 膨らむ 問題 軽視 でき ない 電気 料金 値上げ やむをえ ない 節電 余地 生み にくい 企業 など こと 考えれ 限界 ある 戦略 指摘 する よう 官民 あげ 天然 ガス 輸入 価格 下げる 努力 欠か ない 価格 安い 石炭 火力 について 二酸化炭素 排出 減ら せる 最新 技術 実用 支援 態勢 充実 たい 地産 はじめ する 自然 エネルギー 育成 言うまでもない 政治 課題 燃料 サイクル 政策 見直し 原発 ゼロ 目ざす 済み 燃料 処理 する なく なる 処理 施設 受け入れ 青森 廃棄 押しつけ られ かね ない 反発 いる 原子力 協定 結ぶ 米国 保障 問題 など から 懸念 示し いる いう しかし 摩擦 大きい から 決断 先送り いけ かえって 使い道 ない プルトニウム 置き場 ない 放射 廃棄 増やす こと なる まずは 事業 凍結 責任 もっ 後始末 あたる べき 青森 関係 各国 協議 ながら 済み 燃料 する 中間 貯蔵 施設 確保 あげる 消費 含め 国民 検討 市場 活用 政界 すでに 政権 交代 色めき たっ いる だが どの 政党 政権 つこ とも 原発 減らし たい という 国民 意志 無視 でき まい では どの よう 枠組み 設けれ 原発 長期 取り組み なる だろ 一つ 法制 原子力 見直し だけ なく 原発 理念 明確 法律 あれ 拘束 生じる 見直し 国会 審議 なり 透明 担保 れる もう 一つ 市場 活用 する こと 電力 改革 進め 地域 独占 廃止 発電 分野 自由 競争 促す 原子力 規制 委員 電力 会社 事情 配慮 する こと なく 極めて 厳格 基準 設ける 競争 なか 確保 ため 追加 投資 経済 見合わ なけれ 電力 会社 原発 依存 自然 減っ いく 原発 ゼロ 現実 ない という 批判 ある しかし 放射 廃棄 処分 見つから ない こと 原発 リスク 抱え いる こと 電力 会社 国民 信頼 失っ こと それ こそ 現実 ある 簡単 ない 努力 工夫 重ね 原発 道筋 確か もの しよ</t>
-  </si>
-  <si>
-    <t>済み 燃料 処理 取り出し プルトニウム 燃料 利用 する 核燃 サイクル 日本 長年 国策 として 追い求め だが 国内 サイクル 実現 ない そもそも プルトニウム 利用 ウラン だけ 原発 より 割高 ある しかも プルトニウム 消費 だっ 高速 増殖 原型 もんじゅ 事故 挫折 いる プルトニウム ウラン 混合 燃料 発電 福島 原発 事故 見通せ ない すでに 海外 処理 委託 含め トン プルトニウム たまっ いる うち 日本 国内 ある トン だけ でも 計算 核兵器 つくれる 当たる 安倍 首相 できる 限り 原発 依存 低減 いく いる それなのに 首相 核燃 サイクル 事業 継続 せる 考え 示し いる 青森 六ケ所 処理 工場 トラブル 続き 延期 １０月 本格 稼働 めざし いる この まま 動かせ プルトニウム さらに 増える 公算 大きい 矛盾 言わ ざる ない 政策 国際 政治 現実 から プルトニウム 利用 マイナス 大きい 北朝鮮 イラン 開発 拡散 問題 世界 保障 深刻 落とす 非核 規模 処理 容認 いる 日本 だけ 被爆 体験 持ち 非核 原則 国是 日本 信頼 裏返し ある だが 使い道 明確 ない プルトニウム ためこめ その 信頼 つく 他国 日本 まね プルトニウム 利用 求め 待った かけ にくい ある 米国 懸念 根強い まで ホワイトハウス 科学 技術 政策 次長 つとめ メリーランド 大学 スティーブ・フェッター 教授 次長 在任 から 処理 反対 だっ 処理 工場 本格 稼働 プルトニウム さらに 増えれ 国際 理解 得る こと 難しく なる 危惧 する 原子力 規制 委員 処理 工場 基準 まとめる それ 待た 本格 稼働 急ぐ ない 現在 考え られる 最良 選択 済み 燃料 処理 空冷 貯蔵 容器 乾式 貯蔵 容器 する こと 乾式 貯蔵 改善 欧米 実績 あり 最終 処分 未来 技術 判断 すれ いい 次世代 さらなる 拡散 リスク 背負わ なく すむ よう 処理 撤退 決断 べき</t>
-  </si>
-  <si>
-    <t>日本 政府 途上 原発 輸出 血道 あげ いる 安倍 首相 今週 トルコ 訪問 三菱重工業 中心 企業 連合 による 原発 受注 成果 帰国 しかし 福島 原発 放射 物質 による 汚染 流出 続く 遅れ 事故 収束 めど いっこうに たた ない 見え ない 避難 生活 強い られ いる 住民 から よく 原発 売れる もの 怒り あがる ある 国内 原発 転換 求める 多く 国民 向け 原発 政策 あいまい 続ける 一方 海外 あたかも 事故 経験 日本 原発 技術 高め よう 売り込む 考え違い ない トルコ エルドアン 首相 記者 会見 安倍 首相 原発 事故 教訓 世界 共有 する こと により 世界 原子力 向上 図っ いく こと 我が国 責務 述べ 目標 として 正しい 場当たり 事故 対応 世界 不信 招い いる 実態 津波 地震 事故 大きな 影響 与え どう わかっ ない 有数 地震国 ある トルコ 売り込む 自信 どこ から くる 事故 賠償 責任 心配 カリフォルニア 原発 をめぐって 決め 電力 会社 損害 ドル のぼる 主張 原因 なる 放射能 漏れ 起こし 蒸気 発生 納入 三菱重工 グループ 契約 上限 超え 賠償 する よう 求め いる よう 引き渡し 知ら ない いか なく なっ いる 首相 自ら 売り込み 大きな 事故 起き 日本 政府 賠償 保証 くれる 受け止め られ ない 途上 多かれ 少なかれ 政情 不安定 でも ある 原発 テロ 物質 核兵器 転用 リスク 日本 政府 どこ まで 真剣 考え いる 疑問 ある エルドアン 首相 会見 事故 ある から いっ 自動車 飛行機 乗ら ない わけ いか ない 述べ だが 福島 事故 原発 危険 飛行機 同列 扱え ない こと 見せつけ 断層 に関する 論議 周辺 住民 広域 避難 計画 づくり 通し 地震国 原発 持つ 困難 よく わかっ 済み 燃料 最終 処分 から 暗礁 乗り上げ いる 安倍 政権 原発 輸出 成長 戦略 据える 山積 する 問題 つぐん 売り込む 倫理 とる</t>
-  </si>
-  <si>
-    <t>新た 神話 形づくら れよ ない 安倍 政権 示し エネルギー 計画 原発 稼働 手順 示さ 原子力 規制 委員 専門 判断 委ねる 規制 規制 基準 適合 いる 認め 原発 稼働 進める 自治体 など 理解 協力 られる よう 立つ 要するに 規制 基準 適合 原発 支援 動かす という わけ 安倍 首相 参院 予算 委員 世界 最も 厳しい 基準 判断 もの 稼働 いき たい 述べ 閣僚 から 規制 判断 宣言 みなす 発言 相次ぐ だが 規制 田中 俊一 委員 ども 絶対 とか そういう こと 申し上げ ない お墨付き 与える ため やっ いる 意識 ない いう 確認 おき たい 新しい 規制 基準 原発 事故 より ずっと 厳しい 万全 ない たとえば 放射能 原発 敷地 放散 場合 周辺 住民 避難 規制 基準 避難 計画 入っ ない 計画 づくり 実施 自治体 仕事 なっ いる 規制 基準 適合 判断 から いっ 住民 保証 れる わけ ない 人口 密集 近い 東海 茨城 浜岡 静岡 原発 県庁 所在地 ある 島根 原発 について 電力 事業 稼働 めざし いる 防災 計画 策定 義務づけ られ キロ 圏内 人口 東海 浜岡 島根 のぼる 格納 容器 破損 する 事態 なれ 時間 以内 キロ 圏内 避難 という 試算 ある 津波 地震 伴う 複合 災害 なれ 道路 寸断 渋滞 起きる だろ そうした これ だけ 被曝 ひばく 避難 せる こと できる 日常 砕か れる 住民 賠償 仕組み 全く 不備 だっ こと 福島 事故 明らか なっ 日本 だっ 東京電力 すら 支払い 不安 だらけ 事業 なら なお 困難 のに 新た 仕組み 詰め ない まま 見切り 発車 する 事故 教訓 ひとつ 備える こと 規制 適合 判断 どこ まで リスク 減ら せる それ だけ 足り ない もの そこ 見極め 国民 正直 説明 する こと 政治 使命 ある 規制 判断 もっ 住民 守る 論議 終止符 打つ こと ない</t>
-  </si>
-  <si>
-    <t>九州電力 川内 せんだい 原発 稼働 めぐり きょう から まで 地元 鹿児島 県議会 臨時 議会 開く 稼働 推進 陳情 採択 れる 公算 大きい だが 段階 川内原 稼働 進める こと 無責任 あり 反対 ある 原子力 規制 委員 原発 設備 詳細 審査 保安 規定 に関する 審査 まだ 終え ない 県議会 知事 稼働 同意 急ぐ べき ない より 大きな 問題 住民 避難 計画 ある 原発 事故 規制 放射 物質 飛散 する 過酷 事故 起こり うる こと 原発 審査 採り入れ 過酷 事故 対応 手順 など 審査 する よう なっ 前進 ある だが 過酷 事故 起こり うる 前提 原発 防災 対策 眺める 比べ 住民 避難 計画 目立つ 整然と 避難 できる こと なっ たり 避難 バス 台数 さえ 確定 だっ たり という 具合 原発 事故 踏まえ 道府県 おおむね キロ 圏内 市町村 避難 計画 策定 義務づけ られ しかし 規制 計画 作り 関与 地元 自治体 投げ 状態 現状 避難 計画 だれ 審査 おら いざ という とき 使える 保証 ない 北陸電力 志賀 しか 原発 事故 想定 実施 原子力 総合 防災 訓練 悪天候 による 住民 避難 でき なかっ 同様 こと 起き かね ない 原発 キロ 全国 自治体 首長 対象 朝日新聞 実施 アンケート 近い 避難 計画 審査 対象 含める べき 答え 早急 何らかの 法制 によって 実効 担保 避難 計画 策定 べき ある 川内原 名指し ない ものの 規制 火山 噴火 リスク 取り扱い 日本 火山 学会 異議 唱え いる 噴火 予測 限界 あいまい 理解 不十分 という ある 福島 原発 事故 津波 危険 主張 する 専門 事故 防げ なかっ 規制 電力 会社 火山 学会 主張 謙虚 傾ける べき ある 火山 リスク 原発 だれ 保証 でき ない こと 象徴 いえる なのに 自治体 首長 から 福島 起き 津波 地震 原発 事故 対応 する 言っ いい 信じ いる 発言 飛び出す 神話 回帰 同じ 失敗 繰り返し なら ない</t>
-  </si>
-  <si>
-    <t>東日本 大震災 すべて 原発 止まっ まもなく たつ 冷暖房 電気 多く 使う 規模 停電 引き起こす こと なく 乗り切っ 福島 原発 事故 国家 存亡 危機 招き 収束 ない 原発 知っ から こそ 不便 あっ 原発 止まっ まま たい 各種 世論 調査 半数 稼働 反対 いる そんな 思い 表れ だろ だが 安倍 政権 原発 回帰 しよ いる ８月 九州電力 川内原 鹿児島 稼働 いずれ 日本 電源 原発 まかなう こと 目指し いる なし崩し 原発 回帰 反対 する 国民 生活 負担 かかり すぎ ない よう 配慮 つつ 稼働 ない 努力 最大限 する べき 目指す べき エネルギー 社会 再生 エネルギー 主軸 あり 原発 電源 なる 社会 ない 避け られ 電力 朝日新聞 ７月 社説 原発 ゼロ 社会 提言 古い 原発 危険 高い 原発 から 閉め めど すべて する 稼働 せる 原発 選び 需給 から もの 限る 節電 省エネ 対策 進め つつ エネ 開発 普及 あげる 当面 火力 発電 強化 長期 原発 温暖 両立 せる 多様 事業 新規 参入 促す 電力 改革 進め 消費 知恵 選択 生きる 分権 エネルギー 社会 転換 する 考え方 変わら ない しかし この 年間 状況 変わっ 最も 劇的 だっ 原発 による 発電 ゼロ なっ こと 全国 原発 動い その後 定期 点検 ため 次々 休止 一時 関西電力 大飯原発 福井 動い ものの ９月 以降 一つ 原発 稼働 ない この間 心配 電力 起き なかっ 緊急 電源 かき集め しのぐ 局面 あっ 節電 定着 はじめ 火力 能力 高め たり 電力 会社 垣根 越え 電力 融通 あっ たり する こと まかなえ ただし 原発 稼働 ゼロ まま 定着 せる 環境 盤石 なっ まだ 言え ない 規模 発電 から 遠方 消費 電気 送る 供給 態勢 原発 事故 そのまま 残る システム 脆弱 ぜいじゃく 克服 ない 電力 ピーク 大きな 火力 発電 故障 すれ 不測 事態 起きる 消え ない システム なお 脆弱 電力 火力 頼っ いる 現状 持続 言え ない だろ エネルギー 輸入 頼る 為替 価格 変動 リスク 常に さらさ れる 電気 料金 国民 日本 経済 値上げ どの 程度 まで 許容 できる 詳細 調査 ない まま 値上げ 生活 経済 活動 深刻 影響 与える こと 避け なけれ なら ない 国民 生活 深刻 影響 与える リスク ゼロ なっ ない そう 考えれ 手段 として 稼働 という 選択肢 否定 する 難しい それでも 個々 原発 に対する 判断 きわめて 慎重 なけれ なら ない この 原発 動かす こと どんな 不利益 回避 できる 電力 広域 融通 電力 応え なお 稼働 といった 観点 から 納得 いく 説明 でき なけれ なら ない 原発 条件 から 確保 いる こと 周辺 住民 避難 できる 手段 整っ いる こと 前提 なる 稼働 ゼロ 実績 それだけ 稼働 ハードル 高く いる こうした 状況 もと できるだけ 早く エネ 育て 分散 電力 システム 切り替え いく その ため 新た 方向 誘導 する 政策 努力 欠か ない 政府 改革 道筋 立て 送電 充実 原発 ゴミ 処分 など 資源 せる 進める 態勢 づくり 収益 だっ 原発 失う 自治体 支援 原発 関連 事業 経過 措置 なる 原点 福島 原発 ところが 安倍 政権 行こ いる 原発 依存 限り 低減 する ながら 原発 維持 する 方向 転じ 原子力 規制 委員 ＯＫ 原発 すべて 動かす 判断 投げ 規制 発電 限っ 物理 見る すぎ 政策 責任 負う もの ない 自治体 責任 持つ いい ながら 中身 ない 川内原 場合 でも 住民 確保 火山 噴火 問題 積み残し まま 原発 考える 原点 福島 原発 事故 ある 原発 動い ない この 実績 生かす こと 考える べき ある</t>
-  </si>
-  <si>
-    <t>まるで 福島 原発 事故 司法 逆戻り よう 福井 地裁 きのう 関西電力 高浜原発 号機 福井 稼働 禁じ ４月 地裁 仮処分 決定 取り消し 規制 基準 について ４月 決定 緩やか 過ぎ 適合 原発 確保 ない 断じて 今回 高度 専門 独立 有する 原子力 規制 委員 審査 する 規制 基準 枠組み ある 規制 審査 について 判断 不合理 ない 結論づけ 同時に 審理 大飯原発 号機 運転 差し止め 仮処分 申請 稼働 差し迫っ いる いえ ない として 却下 ４月 決定 以降 四つ 原発 耐震 設計 目安 なる 基準 地震動 超える 地震 こと 済み 燃料 プール 設備 堅固 ない 指摘 これら 今回 決定 危険 社会 通念 無視 得る 程度 まで 管理 いる 述べ 原子力 専門 知見 尊重 審査 見過ごせ ない ほど 落ち度 ない 限り 司法 専門 技術 判断 踏み込ま ない ―― 四国電力 伊方 原発 訴訟 最高裁 示し 判例 今回 決定 この 考え方 踏襲 いえる だが この 枠組み 司法 判断 避け 続ける 福島 事故 起き なかっ 原発 ひとたび 事故 起こせ 広範囲 長期間 計り 知れ ない 被害 もたらす 専門 判断 委ね 深刻 事故 めったに 起き ない という 前提 立っ よう 今回 決定 想定 事故 起こり 得る という 視点 欠け いる 原発 あり方 考える 大切 論点 だっ はず 関電 高浜 稼働 遅れる ごと 経済 損失 出る 主張 司法 ストッパー 外れ こと 稼働 向け 手続き 加速 する だが 原発 国民 厳しい 視線 注が いる こと 忘れ なら ない 電力 会社 原発 稼働 同意 得る 地元 範囲 原発 自治体 限っ いる 高浜原発 キロ 圏内 京都 滋賀 含ま れる 同意 得る 範囲 見直す べき 福井 多く 原発 集まる リスク について 議論 不十分 政府 電力 会社 これら 問題 置き去り まま 稼働 突き進む こと 許さ ない</t>
-  </si>
-  <si>
-    <t>古い 原発 計画 原発 減らし いく ―― 東京電力 福島 原発 事故 反省 から 決め ルール 早く 骨抜き なろ いる 原子力 規制 委員 運転 開始 から 超え 関西電力 高浜原発 号機 福井 について 規制 基準 満たし いる 正式 決め 基準 もと 老朽 原発 運転 延長 認め られる 初めて 残る 細かい 審査 ７月 期限 まで 終えれ あと 運転 続く 公算 大きい ルール 福島 事故 法律 改正 導入 だけ 最長 年間 定め られ 運転 延長 極めて 例外 位置づけ られ あえて 例外 設け 電力 備える ため だっ 節電 省エネ 定着 懸念 解消 いる 言っ いい おりしも 熊本 中心 まで 経験 から はずれ いる 気象庁 という 地震 続く 鹿児島 運転 九州電力 川内原 影響 及ば ない 不安 感じ いる 国民 少なく ない いきなり 例外 認め 規制 緩める よう 対応 原発 行政 不信 高める だけ ない 安倍 政権 個別 原発 可否 判断 規制 投げ つつ 運転 延長 前提 エネルギー 計画 立て 原発 依存 限り 低減 する 繰り返し 首相 なしくずし 方針 転換 規制 あくまで 科学 見地 から 原発 高める こと 役割 今回 審査 耐震 試験 後回し する こと 関電 認める など 手順 疑問 残る ７月 審査 期限 にらん スケジュール あり だっ すれ まさに 本末転倒 ある 結局 する どう 実質 判断 電力 会社 委ね られ 運転 延長 採算 合う どう という 観点 から 決まる という 状況 なり つつ ある 狭い 国土 多く 住み 地震 など 自然 災害 多い 日本 多く 原発 抱え いく リスク 大きい 福島 事故 そこ 原子力 行政 見直し 出発 だっ はず 原発 維持 する 政策 とり 続けれ 廃棄 処理 など 長期 国民 負担 増え かね ない エネルギー 自給 再生 エネルギー 育成 高めよ という 世界 大勢 移行 期間 として 着実 原発 閉じ いく 政策 こそ あろ 規制 その ため 一つ ある その こと 思い起こす べき</t>
-  </si>
-  <si>
-    <t>カ月 という 歳月 地球 にとって ほんの 一瞬 まばたき する ほど 時間 しか ない きのう 早朝 起き 東日本 大震災 余震 られる 地震 忘れっぽい 人間 記憶 呼び覚ます もの なっ まどろみ から 追い立てる よう 揺れ 東北 から 関東 襲っ 福島 震源 する マグニチュード 地震 宮城 仙台 メートル 津波 記録 国内 大震災 なっ ３月 本震 余震 活動 領域 れる 場所 地震 その 起き きのう この 地域 地震 活動 落ち着い わけ ない 同じ 程度 揺れ 警戒 津波 気象庁 予想 違う あらわれ 宮城 当初 注意報 発令 仙台 想定 超える 観測 津波 到達 警報 引き上げ られ 震源 近い 福島 小名浜 はま より 仙台 高く なっ 理由 について 気象庁 詳しく わから ない いる 地震 規模 それほど なく 震源 浅けれ 断層 ずれ によって 津波 大きく なる こと ある 予想 限界 ある とめ 守る 行動 取り たい 多く たち ひやりと 東京電力 福島 原発 済み 燃料 する プール 冷却 循環 せる ポンプ 一時 止まっ こと 地震 による 水位 変動 検知 自動 停止 装置 働い ため その こと 自体 問題 ない しかし 直後 福島 原発 プール 冷却 停止 による 燃料 損傷 放射 物質 放出 真剣 危ぶま それ 考える 教訓 忘れ られ ない 心配 なる 原子力 規制 委員 済み 燃料 なく 空気 自然 対流 冷やす 乾式 貯蔵 導入 電力 会社 求め いる だが 敷地 長期 貯蔵 開く こと なり 地元 反発 燃料 サイクル 路線 見直し 招き かね ない する 電力 反応 鈍い ここ 確保 考え 実現 急ぐ べき 今回 地震 福島 原発 敷地 タンク たまり 続ける 汚染 リスク 改めて 人々 向け させ 一つ 一つ 災害 謙虚 学び 個人 企業 社会 着実 対策 講じる 今日 起きる かも 知れ ない 災害 備える それ しか ない</t>
-  </si>
-  <si>
-    <t>東日本 大震災 から まもなく 復興 まだ 半ば とりわけ 原発 被災 福島 避難 生活 強い られ 地域 社会 再生 見え ない 原発 事故 被害 その 処理 費用 膨らみ 続け いる かかわら 政権 原発 基幹 電源 として 積極 使う 構え 事故 惨禍 目の当たり なお 原発 頼り 続ける こと ある だろ 政府 電力 業界 言う よう 本当に 原発 安い 膨らみ 続ける 費用 東京 都内 ホール 福島 原発 事故 避難 強い られ 福島 浪江 ２月 開い 住民 懇談 避難 たち 次々 悲痛 上げ 終わっ 連絡 線量 下がっ ない これ 帰れ ない たち 原発 事故 追い出さ 帰れ ない 東電 家賃 払い 続ける べき 浪江 中心 今月 避難 指示 解除 住民 戻れる よう なる ただ 楢葉 など 指示 すでに 解除 地区 帰還 ほど ところ 多く 先行き 厳しい 炉心 溶融 起こし 原子 内部 惨状 ようやく 見え 始め ところ 高熱 曲がっ 鉄格子 こびりつい 黒い 東京電力 号機 調査 ロボット 投入 人間 なら 足らず 致死 達する 強い 放射線 堆積 たいせき 途中 阻ま 溶け 落ち 燃料 取り出す 道筋 見当 つか ない 賠償 など 費用 について 経済 産業 昨年 総額 のぼる 見通し 示し 従来 想定 巨額 負担 電気 料金 税金 として 国民 のしかかる そもそも 壊さ 生活 地域 社会 など 金銭 表せ ない 被害 ある 痛手 計り 知れ ない 保護 あり 政府 政府 東電 つぶさ ない ため 支援 てこ入れ 乗り出し 東電 原発 持つ 電力 大手 各社 負担 賠償 年間 にわたって 電力 自由 参入 電力 一部 負担 せる 方針 これ 自由 めざす 消費 利益 より 原発 保護 優先 する やり方 ほかなら ない 原発 持た ない 電力 原発 固有 コスト 押しつけ 大手 負担 軽く する から なりふり 構わ 姿勢 から 浮かび上がる 原発 もはや 強力 政策 支援 ない 成り立た ない という 実態 ある それでも 福島 事故 費用 織り込ん 原発 コスト 優位 変わら ない 言う 引き合い 出す 示し 試算 原発 新設 する 場合 発電 コスト について 火力 自然 エネルギー など 電源 より 低い する 年度 時点 電気 ほど 原発 まかなう 政策 根拠 いる だが これ さまざま 疑問 いる 原発 批判 専門 試算 原発 大きな トラブル なく 長く 運転 できる こと 前提 過去 稼働 状況 費用 実績 もと 計算 すれ 発電 コスト 高く なる 建設 費用 震災 世界 上昇 いる 指摘 する 試算 費用 見積もり 置き すぎ ない 項目 つく たとえば 燃料 サイクル 技術 確立 おら 進め方 未定 多い 長年 懸案 ある レベル 放射 廃棄 最終 処分 選び 遅々 として 進ま ない これら 既存 原発 かかわる 問題 歴代 政権 原発 推進 振り つつ 課題 について 先送り その しのぎ 繰り返し そんな やり方 もはや 限界 原発 エネルギー 計画 見直す 時期 当たる この とらえ 原発 はじめ 電源 経済 リスク 利点 精査 計画 せる べき 原発 推進 だけ なく 批判 専門 招き 多角 検討 する こと 欠か ない 海外 向けれ ドイツ 台湾 原発 決め 先進 原発 前倒し 閉鎖 たり 原発 依存 下げる 目標 掲げ たり する 動き いる 重視 する 社会 事故 廃棄 対策 解決 でき ない 原発 余る もの なり つつ ある その きっかけ なっ 福島 事故 だっ 規制 強化 コスト 上昇 東芝 経営 危機 つながっ 安倍 政権 なす べき 原発 取り巻く 現実 稼働 慎重 民意 向き合い 原発 依存 着実 下げ いく 真剣 練る こと ある 閉鎖 原子力 ムラ 論理 利か 神話 はびこっ 結果 福島 起き この 年間 いま 思い起こし エネルギー 政策 持続 もの 作り替え なけれ なら ない</t>
-  </si>
-  <si>
-    <t>福島 原発 事故 起こし 後始末 追わ れる 東京電力 に対し 原発 動かす こと 認め よい 国民 説明 理解 得る 責任 政府 ある それ 果たさ ない まま なし崩し 稼働 進める こと 許さ ない 東電 稼働 めざす 柏崎 刈羽 原発 新潟 について 原子力 規制 委員 技術 基準 満たす する 審査 結果 まとめ 手続き 山場 越え 原発 回帰 加速 つながる 節目 ある 投げ 姿勢 政権 安倍 政権 規制 基準 適合 規制 認めれ その 判断 尊重 地元 理解 稼働 する 姿勢 だが この 進め方 大切 こと 抜け落ち いる 稼働 本来 規制 自治体 判断 投げ する なく 事故 リスク 対策 社会 など 踏まえ 総合 判断 べき もの 東電 柏崎 刈羽 全国 原発 でも とりわけ 検討 する べき 課題 多く 重い 事故 被害 納得 する 避難 計画 含め 確保 周辺 住民 不安 拭える 事故 処理 費用 まかなう 目的 ばかり 強調 れる 電力 供給 電気 料金 対策 として 不可欠 そして 事故 反省 立ち 原発 依存 どう 下げ いく こうした 疑問 福島 新潟 はじめ 多く 国民 抱く 政府 答え なけれ なら ない 規制 原発 施設 専門 技術 チェック する 役回り すぎ ない 今回 東電 だけ 特例 として 原発 動かす 資格 見極めよ それ 自体 稼働 手続き 不備 ある こと 表し いる 規制 議論 東電 文化 閉鎖 体質 改善 でき 福島 人手 資金 取ら れる 柏崎 刈羽 対策 おろそか なら ない いっ その 姿勢 妥当 経営 体制 組織 運営 踏み込ま ない まま 責任 持つ という 東電 社長 決意 もと 合格 拙速 判断 言わ ざる ない 手続き 見直し 稼働 手続き 規制 委任 自治体 任せ 電力 会社 任せ なっ いる 見直し しっかり 責任 持つ 仕組み する こと 不可欠 規制 審査 基準 について 政権 世界 もっとも 厳しい 強調 する 規制 最低限 しか ない 繰り返す 政権 まず 規制 保証 よう 印象づける 姿勢 改め なけれ なら ない 事故 避難 計画 規制 審査 対象 なっ おら 政府 として 対応 求め られる 自治体 関係 課題 規制 手続き 終わる 市町村 同意 焦点 なる 電力 会社 協定 基づく 手順 すぎ ない ひとたび 過酷 事故 起き 被害 深刻 考えれ 同意 手続き 法的 位置づけ 関与 する べき 避難 計画 策定 義務づけ られ 原発 キロ 圏内 すべて 自治体 政府 一緒 協議 する 計画 実効 稼働 など 幅広く 検討 運転 認める 判断 する そんな 仕組み ない 個々 原発 動かす どう について 政府 電力 各社 経営 判断 問題 出る 避け だが 原発 さまざま 政策 支える 国策 民営 続け おり 事業 任せ すまさ ない ましてや 東電 事故 伴う 賠償 自前 でき 実質 国有 経営 方針 差配 いる 経済 産業 稼働 疑問 不安 答える 責任 政府 東電 とともに 果たす べき ある 原発 問い 直す 契機 柏崎 刈羽 審査 合格 日本 原発 大きな 影響 及ぼす これ まで 規制 審査 通っ 西日本 ある 加圧水 福島 同じ 沸騰水 柏崎 刈羽 なる これ 呼び水 なり 東日本 稼働 流れ 強まり そう 柏崎 刈羽 再び 動け 地方 原発 リスク 背負わ 電気 消費 恩恵 受ける 構図 首都 復活 する こと なる 福島 事故 から 過ぎ 被害 癒え ない 原発 批判 世論 占める 状況 変わら ない その 果たす べき 責任 あいまい まま 稼働 既成 事実 積み重ね られ いく そんな 状況 見過ごす わけ いか ない 原発 問題 社会 向き合う ある 衆院 各党 考え 明確 示し 国会 議論 つなげる 国民 改めて 考える 柏崎 刈羽 稼働 問題 その 契機 なけれ なら ない</t>
-  </si>
-  <si>
-    <t>事故 から なく まだ 事故 続い いる 原子力 規制 委員 ふけ 豊志 委員 先週 会見 こう 強調 史上 原発 事故 起こし 福島 原発 表面 落ち着き 取り戻し よう 見える 原子 建屋 周辺 除き 構内 ほとんど 場所 防護 なし 入れる よう なっ 炉心 から 溶け 落ち 燃料 デブリ プール 済み 燃料 冷却 する 手段 確立 再び 放射 物質 まき散らす リスク 下がっ 規制 いる だが 道のり 山頂 見える 状況 なく しかも どの ぐらい 勾配 待ち受け いる かも わかっ ない 実情 政府 昨年 工程 改訂 目標 維持 号機 プール から 燃料 取り出し 開始 年度 遅らせ 炉心 周辺 ぼんやり 様子 わかっ 過ぎ デブリ 取り出す 工法 決定 年度 先送り 時間 たつ につれて タンク トン 達し 放射 物質 含む さらに 増え いく 費用 膨らむ 国民 負担 はね返る しかし むやみ 急げ 作業 被曝 ひばく 事故 リスク 大きく なる 東京電力 昨夏 から 作業 トラブル 不適合 として 公表 いる 作業 けが 急病 複数 作業 同時に 進む 車両 衝突 応急 措置 機器 劣化 など 法令 触れ ない 事例 中心 毎日 よう 問題 報告 いる まずは 作業 確保 する その 環境 汚染 リスク 低減 つつ 着実 進める そんな 多角 目配り なる 周辺 住民 国民 状況 説明 その 傾ける こと 欠か ない だが 内外 有識者 による 東電 原子力 改革 監視 委員 規制 から 東電 収益 優先 傾く ない 懸念 する たびたび 漏れる 実質 国有 救済 東電 にとって 原発 優先 向き合う べき 課題 人材 資金 しっかり 投入 する こと 事故 起こし 事業 として 責務 ある 安倍 首相 五輪 招致 演説 原発 汚染 について アンダー コントロール 管理 ある アピール しかし その後 汚染 対策 難航 ぶり 楽観 許さ ない 東電 東電 指導 監督 監視 する 経済 産業 規制 銘じ ほしい</t>
-  </si>
-  <si>
-    <t>原則 運転 期限 迫る 東海 原発 茨城 について 原子力 規制 委員 運転 延長 認め これ 日本原子力発電 原電 めざす 稼働 技術 審査 ほぼ 終わっ だが 東海 運転 懸念 疑問 多い 人口 密集 事故 避難 難しい 首都 老朽 原発 原則 超え 長く 動かす 正当 理由 見当たら ない 稼働 認め られ ない 運転 期間 ルール 設計 古い 原発 退場 促す ため 規制 東京電力 福島 原発 事故 強化 対策 一つ 規制 認めれ 延長 できる 導入 政府 極めて 限定 ケース 説明 ただ どんな 場合 これ 当たる あいまい 申請 通り 延長 認め られ 原発 今回 東海 なっ 例外 既成 事実 として 積み重ね られれ ルール 形骸 進み かね ない 原発 依存 着実 下げる 観点 から 老朽 原発 規制 あり方 問い 直す ある 東海 固有 問題 山積み 事故 想定 避難 計画 対象 なる キロ 人口 全国 原発 最多 年寄り 障害 運ぶ 手段 確保 など 難題 多く 自治体 計画 づくり 遅れ いる この さき 焦点 なる 地元 同意 ハードル 高い 稼働 に対して 茨城 自治体 東海 別に 周辺 実質 事前 持つ そのうち 水戸 議会 那珂 市長 反対 見込ま れる 対策 工事 問題 見過ごせ ない 経営 原電 自力 資金 調達 でき 株主 電気 販売 ある 東電 東北電力 支援 もらう 方針 だが 東電 福島 事故 実質 国有 救済 巨額 国民 負担 によって 延命 いる 他社 助ける 資格 ある 極めて 疑問 見切り 発車 工事 進め 地元 同意 られ なけれ 巨額 投資 無駄 なる 原電 まず 地元 対話 注力 べき 東電 支援 リスク 見極め 説明 尽くさ なら ない 一方 関係 自治体 住民 確保 重い 責任 負っ いる 東海 東日本 大震災 被災 冷温 停止 手間取っ 住民 根強い 不安 拭える 実効 ある 避難 計画 体制 つくれる これら 真剣 考え 優先 する 姿勢 貫い もらい たい</t>
-  </si>
-  <si>
-    <t>相手 同意 得る めど たた ない のに 見切り 発車 原発 動かす 準備 進め 外堀 埋め いく そんな やり方 地元 不安 疑問 深まる ばかり ない 東海 原発 茨城 稼働 めざす 日本原子力発電 原電 地元 住民 説明 始め 原子力 規制 委員 審査 結果 規制 基準 対応 する 対策 工事 について 説明 理解 広げる らい 原電 昨年 地元 協定 結ん 稼働 について 協定 事前 協議 実質 事前 得る 定める ただ すべて 同意 肝心 はっきり 原電 解釈 食い違い 表面 いる 地元 納得 なけれ 稼働 進め ない 受け止め 多い しかし 原電 とことん 協議 する など あいまい 態度 続け 不信 招い いる 事実 同意 市町村 だけ なく 周辺 まで 広げ 茨城 方式 稼働 手続き 欠陥 正す うえ 意義 大きい 事故 リスク 避難 対策 負わさ れる 周辺 市町村 関与 望む こと 原発 ある 地域 茨城 動向 注視 する 原電 協定 結ん 広く 地元 信頼 得る ため だっ はず 意向 沿っ 運用 なけれ なら ない 協定 同意 ハードル 大幅 上がり 協議 どう 進める かも 見え ない それでも 原電 対策 工事 本格 せる 構え 稼働 向け 既成 事実 積み重ねる よう 姿勢 地元 に対し 不誠実 言わ ざる ない 東海 東日本 大震災 被災 古い 原発 住民 不安 根強い 県内 市町村 半数 議会 稼働 反対 する 趣旨 意見 など 可決 キロ 圏内 人口 全国 原発 最多 のぼり 市町村 避難 計画 づくり 難航 いる 検証 作業 続け いる 原電 地元 不安 要望 真摯 しんし 向き合い 自治体 住民 対話 注力 べき 工事 進める 経営 リスク 責任 生じる 少なくとも 見込ま れる 費用 経営 原電 自力 調達 でき 株主 東京電力 など 支援 もらう 方針 福島 原発 事故 起こし 実質 国有 東電 とりわけ 重い 説明 責任 ある 地元 同意 られ なけれ この 巨額 資金 無駄 なる その 場合 関係 各社 経営 結果 責任 厳しく 問わ れる こと 忘れ なら ない</t>
-  </si>
-  <si>
-    <t>東京電力 福島 原発 構内 表面 事故 後片付け 一段落 よう 見える だが 原子 溶け 落ち 燃料 ブリ ほぼ 手つかず まま 放射 物質 汚染 止まら 浄化 処理 貯水 タンク 超え たっ なお 行く末 見通せ ない ひとたび 原発 事故 起こせ 難い 負う それ 現実 ある 軽視 許さ 福島 事故 教訓 日本 原発 頼ら ない 社会 めざす べき 朝日新聞 これ まで 社説 そう 訴え 世論 調査 原発 稼働 否定 強い 国民 不安 ある から こそ 事業 政府 震災 原発 再び 動かす にあたって 優先 徹底 する 誓っ はず しかし 痛み 風化 つつ ある 心配 なる でき ごと 相次い いる たとえば 先月 敦賀 原発 号機 規制 基準 もとづく 審査 事業 日本原子力発電 ボーリング 調査 データ 黙っ 書き換え こと 発覚 原子力 規制 委員 豊志 委員 科学 常識 照らし おかしい あきれかえる ほど 異例 事態 原電 原発 専業 保有 する うち 決め おり 敦賀 号機 運転 でき ない 経営 苦しい 稼働 認め もらう ため 都合 よく データ 書き換え ―― そう 疑わ 仕方 ない 稼働 原発 止め たく ない という 電力 業界 姿勢 あらわ なっ こと ある 関西 四国 九州 電力 昨年 ４月 テロ 対策 工事 期限 延ばす よう 規制 求め 工事 間に合わ 運転 停止 命じ られる 事態 避け たかっ これ 規制 却下 先週 まず 川内原 号機 止まっ 段階 ゼロ めざせ 事故 あっ 原発 うち 稼働 とどまる 発電 占め 原発 比率 いま すぎ ない 火力 発電 続ける 燃料 かさん 経営 圧迫 れる 電力 業界 稼働 運転 継続 望む 背景 そんな 台所 事情 ある だが 電力 会社 自ら 利益 ため 二の次 する 言語道断 事故 起こせ 社会 人々 暮らし 深い 負わ しまう その こと 忘れ なら ない 気がかり こと ほか ある 運転 期間 ルール 見直し より 長く 原発 使い 続けよ という 考え方 ある 法律 原発 運転 原則 年間 規制 認め 場合 だけ 限度 延長 できる 経団連 昨年 ４月 政策 提言 この 最長 さらに 延ばす こと 検討 する よう 政府 求め 古い 原発 閉め 不測 事故 未然 防ぐ という ルール 趣旨 あくまで 例外 だっ はず 延長 これ まで 認め られ いる 運転 期間 さらに 延ばす より 経済 優先 する もの 容認 がたい 原発 地球 温暖 対策 役立つ という ある 気候 危機 回避 する 二酸化炭素 排出 多い 火力 発電 減らさ なら ない 太陽光 風力 など 再生 エネルギー だけ まだ 穴埋め でき ない 現時点 原発 否定 する こと 難しい だろ しかし 担保 する ルール 変え まで 長く 原発 使う こと 認め られ ない 古く なっ もの から 退か 段階 ゼロ めざす 事故 不安 なくす それ しか ない 世界 潮流 見すえ 原発 ゼロ 時代 電力 確保 つつ 温室 効果 ガス 排出 抑える 原発 残っ いる エネ 育てる ある 天候 まかせ 不安定 など エネ 短所 口実 立ち止まっ いる 時間 ない エネ 事故 リスク なく 処分 困る 放射 廃棄 無縁 発電 コスト 海外 最も 安く なっ こうした 長所 短所 補っ あまり ある から こそ 多く 国々 急速 広がっ いる 残念 ながら 日本 エネ 拡大 世界 潮流 乗り遅れ いる 原因 原発 固執 する 政府 姿勢 現行 エネルギー 計画 エネ 主力 電源 する という 目標 掲げる 一方 年度 電源 構成 原発 エネ ほぼ 同じ 比率 基幹 電源 位置づけ いる 安倍 政権 原発 ゼロ 無責任 として 稼働 進め いる ほか 済み 燃料 から プルトニウム 取り出し 再び 原発 燃やす 燃料 サイクル 政策 破綻 はたん 認め ない 官民 もたれ あっ 原子力 政策 維持 続ける よう エネ 拡大 抑え込ま しまう 政府 原子力 決別 新た 進む という 強い 決意 示す べき</t>
-  </si>
-  <si>
-    <t>首相 まで 温室 効果 ガス 排出 実質 ゼロ する 方針 示し 政府 地球 温暖 対策 強化 急ぐ こと いる 焦点 原発 取り扱い 原発 発電 二酸化炭素 排出 ない ため 積極 活用 求める 早く 始め だが 排出 削減 口実 さまざま 問題 抱える 原発 依存 続ける こと 許さ ない 徹底 省エネ エネ 最大限 導入 取り組み 原発 依存 限り 低減 する 政府 方針 排出 削減 進め方 について 首相 衆院 会議 そう 答弁 気がかり 同時に 原子力 含め あらゆる 選択肢 追求 いく 述べ こと ある 実質 ゼロ ハードル 高い ため 原発 活用 いく ある 考え方 示し いえよ 既存 原発 寿命 迎え 引退 いく 懸念 自民党 新設 求める あがっ いる ところ 政権 原発 増設 建て替え 想定 ない 加藤 官房 長官 慎重 その 姿勢 変わり ない この 中長期 原子力 政策 明確 示し もらい たい 福島 事故 受け 朝日新聞 将来 原発 依存 ない 社会 めざす べき 主張 古く なっ 原発 から 順次 止め 徐々に 減らし 事故 リスク なくす という 考え方 原発 経済 かなっ いる 朝日新聞 調査 事故 対策 電力 合計 超え さらに 膨らむ 見通し あたり 費用 稼働 原発 のぼる 対照 エネ 発電 コスト 下がっ おり 原発 減らし ながら 太陽光 風力 広げ いく という 開発 進む 小型 モジュール ＳＭＲ コスト 現在 原発 欠点 補う いわ れる だが 実質 ゼロ 年間 温室 効果 ガス 大幅 削減 できる 握る 普及 時期 定か ない 技術 期待 時間 浪費 する わけ いか ない 忘れ なら ない どんな 原発 最終 ごみ 処分 という 問題 つきまとう レベル 放射 廃棄 最終 処分 をめぐって 北海道 町村 文献 調査 実施 れる 見込み 問題 解決 長い 年月 かかる 炭素 原発 両立 ながら 気候 危機 対策 進め いく それ こそ 進む べき ある こと 政権 認識 する べき</t>
-  </si>
-  <si>
-    <t>原発 頼ら ない 社会 早く 実現 なけれ なら ない 朝日新聞 東京電力 福島 原発 事故 受け ７月 原発 ゼロ 社会 めざす べき 提言 その後 社説 など 原発 から 段階 撤退 する 訴え 主張 根底 ある 再び 事故 起こし たら 日本 社会 立ち行か なく なる という 危機 ある 最悪 場合 止め たく 止め られ ない ―― 福島 事故 原発 恐ろし まざまざ 見せつけ られ 生々しい 記憶 歳月 とともに 薄れ つつ ある いま 原発 決意 確認 たい 険しい 原発 事故 起こせ 後始末 いかに 困難 きわめる 厳しい 現実 また この 苦い 教訓 ある つい 作業 号機 号機 原子 格納 容器 真上 ある フタ 濃度 放射 物質 汚染 いる こと わかっ 周辺 放射線 人間 時間 いたる ほど 高い 炉心 溶け 落ち 燃料 燃料 ブリ 取り出し について 原子力 規制 委員 豊志 委員 作戦 練り直し なる だろ 述べ 号機 トン 燃料 ブリ ある られる だが どこ どんな 残っ いる いまだに 全容 つかめ ない 新た 見つかっ 号機 濃度 汚染 取り出し 作業 いっそう 難しく なる だろ 工程 取り出し 終える いま 年限 消え しまっ 燃料 ブリ 残っ まま 建屋 設備 解体 撤去 進ま ない 冷却 注水 ともなっ 濃度 汚染 生じ 続け それ 浄化 処理 たまっ いく 東電 掲げる 完了 不可能 ない 疑念 膨らむ ばかり 終着 見え ない 地元 復興 まま なる まい 原発 事故 地域 社会 崩壊 構築 きわめて 長い 年月 かかる この 悲劇 繰り返す わけ いか ない 神話 許さ しかし カ月 わたっ 安倍 政権 流れ 原発 回帰 逆行 いる 事故 翌年 討論 世論 調査 など 国民 議論 当時 民主党 政権 年代 原発 ゼロ 打ち出し だが 同じ 年の暮れ 政権 奪還 自公 さしたる 政策 論争 なく 原発 推進 戻し しまう 古い 原発 など ほど 減っ ものの 安倍 政権 発電 占める 原発 比率 事故 近い 水準 目標 事故 設け られ 原発 運転 原則 よそ 延長 特例 相次い 認め られ いる 政権 この 路線 継承 引き続き 最大限 活用 する 方針 示し いる 原発 依存 限り 低減 する いい つつ 示さ まま 稼働 進める その 姿勢 不誠実 という ほか ない 政府 稼働 にあたり 原発 規制 基準 世界 最も 厳しい 不安 解消 努め これ 新た 神話 醸成 ない 気がかり 電力 会社 緩み すごせ ない 福島 事故 当事者 ある 東電 原発 中枢 不正 入室 許し 施設 耐震 報告 怠る など に対する 姿勢 問題 ある かかわら 産業 中心 原発 期待 大きい 原子力 エネルギー 自立 欠か ない 原発 運転 期間 延ばす べき エネルギー 計画 改定 議論 する 経済 産業 審議 原発 推進 相次い いる 事故 痛み 忘れ よう 破綻 はたん 燃料 サイクル まで 推進 ほしい という 要望 ある こと 驚く 済み 燃料 処理 プルトニウム 取り出し 高速 開発 頓挫 ため 消費 望め ない そんな なか 燃料 サイクル 進め たら 原爆 材料 なり うる プルトニウム 保有 思う よう 減ら 国際 批判 れよ 神話 業界 もたれ あう 事故 変わら 構図 解消 べき エネ 拡大 こそ 原子力 ばかり 注い 再生 エネルギー 水素 炭素 時代 技術 革新 乗り遅れ しまう 地球 温暖 防ぐ コスト エネ 広げる 原発 利用 エネ 拡大 する まで 一時 もの とどめ できるだけ 早く 原発 シナリオ 固める ある たっ 原発 引退 増設 建て替え ない そう 決めれ おのずと 原発 ゼロ 道筋 見え こよ 原子力 から 撤退 向け 着実 踏み出し 初めて 福島 原発 事故 教訓 結ぶ こと なる</t>
-  </si>
-  <si>
-    <t>強い 権限 持つ 組織 自ら 厳しく 律する ある 原子力 規制 委員 こと 規制 ８月 原発 テロ 対策 施設 に関する 機密 高い 書類 紛失 明らか １０月 原発 検査 携帯 義務づけ られ いる 身分 など 職員 紛失 公表 １１月 福島 放射線 モニタリング 調査 測定 ミス あっ 発表 テロ 対策 書類 外部 流出 少なく 誤っ シュレッダー 処分 高い いう 身分 紛失 について 原発 構内 入る 運転 免許 など 確認 いる など 説明 いる 緊張 欠け まい テロ よう 悪意 持っ 相手 対処 できる 体制 ある 検証 確認 徹底 不可欠 しかも 規制 柏崎 刈羽 原発 テロ 対策 不備 東京電力 に対する 姿勢 厳しく 問う いる 事業 侮ら 検査 厳格 進める ため 一層 正さ なら ない モニタリング 調査 昨年 ５月 以降 本来 なら 放射線 検出 はず 試料 検出 規制 誤っ 基準 分析 依頼 こと 原因 委託 変える まで 受注 分析 機関 厳しい 基準 調べ ため 問題 起き なかっ より 長年 にわたり 誤っ 情報 流さ 続ける こと なり かね ない 状況 だっ 東電 福島 原発 から 処理 放出 計画 れる なか 今回 明らか なっ 失態 放出 モニタリング 調査 信頼 影響 かね ない 正確 透明 国内外 から 注視 いる こと 自覚 べき なる テロ 対策 書類 紛失 昨年度 政策 評価 報告 項目 ある 改善 事項 ひとつ として 触れ られ こと しかも 流出 なく 廃棄 推定 かかわら 機密 高い 文書 廃棄 について 報告 これ 規制 原則 ひとつ ある 透明 言える だろ 電力 会社 報告 漏れ 隠蔽 いんぺい ただす 立場 あり なる 積極 公表 求め られる 規制 原発 事故 反省 から 原子力 管理 立て直し 文化 確立 する ため 設置 独立 強い 権限 持ち その 判断 電力 会社 経営 電力 供給 影響 及ぼす 何より 国民 存亡 かかわる 原発 事故 大きな 責任 負っ いる 社会 から 期待 厳しい 向け られ いる こと 忘れ 組織 引き締め 厳格 審査 検査 続け ほしい</t>
-  </si>
-  <si>
-    <t>人類 生命 地球 環境 脅かす 前代未聞 愚行 という ほか ない ロシア 原子力 発電 など 施設 攻撃 占拠 ただちに 停止 する べき ウクライナ 原子力 関連 施設 相次い ロシア 襲わ いる 砲撃 など 管理 置か れる 事態 続い いる 年代 事故 知ら れる チェルノブイリ 原発 欧州 ザポリージャ 原発 制圧 物質 扱う 研究 施設 戦火 及ん 攻撃 一時 火災 起き ザポリージャ 原発 内部 映像 報じ られ いる 撃つ やめろ 世界 危うく なる 懸命 職員 訴える 館内 放送 慄然 りつ ぜん する 原子 建屋 無事 だっ いう 安心 でき ない 原子 冷却 する 設備 壊さ れれ 福島 原発 よう 炉心 溶融 招い 済み 燃料 プール から 放射 物質 拡散 する 恐れ あっ 国際 武力 紛争 取り決め ある ジュネーブ 条約 原発 攻撃 明確 禁じ いる 惨事 地球 規模 悪影響 広げ 人々 世代 超え 危険 さらさ れる から 侵略 戦争 国際 違反 重ねる ロシア 行動 最大限 非難 値する この 問題 国連 安保理 開か 原発 攻撃 あまり 由々し ゆえ 懸念 続く ザポリージャ 原発 外部 通信 断た 運転 たち 作業 報告 命じ いる チェルノブイリ 原発 要員 交代 滞っ いる 伝え られる 原発 運転 専門 知識 備え 緊急 事態 対応 できる 人員 輪番 態勢 必須 国際 原子力 機関 管理 権限 ウクライナ 戻す よう ロシア 求め いる 従う べき ロシア 電力 インフラ する 戦術 思惑 ある だろ さらに プーチン 大統領 ウクライナ 政府 核兵器 開発 もくろん いる 言い 始め 侵略 正当 する ため 疑惑 作り上げる 狙い かも しれ ない 国際 原子力 機関 その 疑い 否定 いる 今回 事態 受け 原発 抱える 日本 自治体 から 不安 いる など 原発 航空機 による 衝突 考え 堅牢 造ら いる れる 戦争 攻撃 れる シナリオ まで 想定 ない 大国 正規 他国 原発 攻撃 する という 異常 事態 施設 から 拭え リスク 浮き彫り 検討 改めて 深める あり いま なお 原発 事故 闘い 続け いる 被爆 日本 国際 議論 先導 する 責任 ある</t>
-  </si>
-  <si>
-    <t>原発 抱える 数々 難題 追いやり 推進 好都合 ばかり 訴える そんな 結論 あり 議論 政策 転換 進め いい 課題 方策 について 多角 検討 尽くす こと 政権 最低限 責務 ある 政府 これ まで 福島 原発 事故 教訓 踏まえ 原発 限り 依存 低減 する ところが 岸田 首相 ８月 稼働 加速 運転 期間 延長 新型 建設 検討 指示 この 原発 復権 向け 地ならし 舞台 なっ いる 経済 産業 審議 総合 資源 エネルギー 調査 年末 まで 結論 出す いう そこ 議論 原発 推進 前提 意見 大勢 占める 原発 動かせ 電力 供給 安定 つながる 温室 効果 ガス 出さ 炭素 役立つ といった 利点 強調 ほとんど 早速 政策 支援 強化 検討 いる だが 原発 事故 対策 もちろん 放射 廃棄 処分 燃料 サイクル 行き詰まり 将来 経済 低下 など 長年 懸案 山積み そうした について 表面 議論 終始 中身 深まら ない なぜ これ ほど 議論 狭く なっ しまう 審議 議題 人選 決め いる 委員 多く 原子力 研究 電力 業界 関わり 深い 有識者 経済 原発 懐疑 視点 から 意見 述べる ごく 一部 しか ない これ 調査 審議 できる 極めて 疑わしい 通り 議論 推進 官庁 提案 お墨付き 与える だけ 役回り なる ない 審議 慎重 委員 から 国民 各層 コミュニケーション 結果 あり ない オープン 議論 意見 政府 指摘 真摯 しんし 受け止め 熟議 できる 環境 整え なけれ なら ない カ月 方針 決定 という あまりに エネルギー 問題 激動期 あり 複雑 増し いる 原発 位置づけ 電気 使い方 将来 にわたって する 大きな テーマ 安定 供給 炭素 効果 だけ なく 課題 コスト リスク 選択肢 比較 など さまざま 観点 から 検討 重ねる こと 欠か ない 審議 含め さまざま 専門 バランス よく 集め 透明 確保 議論 なる かつて 産官学 原子力 ムラ 政策 主導 する なか 神話 広がり 惨事 行き着い 異見 排除 閉鎖 議論 もたらす 深く 顧みる べき</t>
-  </si>
-  <si>
-    <t>原発 最大限 活用 向け 関連 法案 審議 始まっ その 含ま れる 原子力 改正 原発 使い 続ける ため 責務 施策 事細か 書き込み 将来 にわたって 推進 一辺倒 突き進む よう 内容 この 改正 反対 する 戦後 原子力 開発 にあたり 議員 立法 として 制定 原子力 利用 推進 掲げる 一方 平和 目的 限り 民主 自主 公開 原則 置い 施策 根拠 原子力 憲法 言わ れる 改正 条文 大幅 増やし 東京電力 福島 原発 事故 真摯 しんし 反省 原子力 事故 発生 常に 想定 努力 払う 記述 ある 事故 から 遅ればせながら ある この 評価 できる ところが その後 続く あっ 原発 利用 推進 いく 姿勢 示す 受け取れる 内容 ほとんど 施策 原発 関係 技術 開発 促進 人材 育成 産業 基盤 維持 強化 といった 記述 並ぶ さらに 原発 事業 安定 事業 行える 環境 整備 する といった 趣旨 項目 あり その 前置き として 電気 事業 係る 制度 抜本 改革 実施 状況 において 記し いる ため 資金 確保 電力 自由 など 原発 採算 なっ 段階 事業 継続 支え 続ける 宣言 する こと なら ない 済み 燃料 処理 について 着実 実施 図る 書き込ん 処理 前提 なる 燃料 サイクル 政策 中核 高速 計画 頓挫 行き詰まり 明らか それ 固執 する 姿勢 盛り込む 理解 でき ない 利用 促進 ばかり 並ぶ 背景 改正 電気 事業 改正 など 束ね 法案 として 出さ いる 構図 ある 岸田 政権 原発 運転 期間 規制 観点 従来 確保 から 利用 政策 移し 長期 運転 しよ いる 電気 事業 改正 そうした 内容 含ま 改正 平仄 ひょう そく 合わせ 記述 ある しっぽ 振り回し いる 実態 ない エネルギー 情勢 再生 エネルギー 含め 関連 技術 変革期 あり 原発 めぐる 環境 将来 大きく 変わり うる 次元 原発 いっそう 推進 固定 方向 見直す ハードル 上げれ 禍根 残す 原発 復権 ため まで 様変わり せる よう こと 断じて 許さ ない</t>
-  </si>
-  <si>
-    <t>改めて この 問題 解決 する 難し 痛感 する 原発 から 出る レベル 放射 廃棄 ごみ 最終 処分 めぐり 長崎 対馬 比田勝 市長 調査 受け入れ ない 方針 市議会 先月 中旬 選定 プロセス 起点 なる 文献 調査 受け入れ 求める 請願 採択 市長 判断 注目 市長 将来 向け 熟慮 結果 述べ 計画 進める 経済 産業 原子力 発電 環境 整備 機構 ＮＵＭＯ 決断 重く 受け止め その 理由 謙虚 傾ける ある 地元 調査 伴う 交付 期待 一方 漁協 など 反対 請願 出し 二分 する 事態 なっ 市長 会見 今回 判断 至っ 市民 分断 深め たく ない という 気持ち 表れ 語っ 住民 対立 分断 二つ 町村 文献 調査 進む 北海道 聞こえる その 一つ 寿都 町長 調査 賛否 めぐり 二分 周辺 放射 物質 持ち込ま ない ぬき 条例 つくっ たり 調査 伴う 交付 辞退 たり 自治体 ある 対馬 比田勝 市長 いったん 文献 調査 入っ たら 断る 難しい 話し ＮＵＭＯ 首長 反対 すれ 段階 進ま ない いう だが 自治体 交付 もらっ しまえ 止まら なく なる ない という 不信 根強く ある みる べき 処分 懸念 示さ 日本 火山 地震 多く 地元 不安 疑問 感じる 無理 ない 朝日新聞 社説 最終 処分 計画 そもそも 目的 原子力 利用 推進 ある こと 問題 指摘 原発 運転 続ける 限り 廃棄 増え 地元 際限 なく ごみ 持ち込ま れる ない 懸念 拭え ない 計画 実現 する 見通し ない 燃料 サイクル 依拠 いる こと 見過ごせ ない 原発 推進 かじ 切っ 岸田 政権 もと 疑念 ますます 強まっ いる 一方 すでに 済み 燃料 する 処分 ただ それ 過疎 財政難 抱え 特定 地域 だけ 背負う べき 問題 ない 電力 恩恵 受け 都会 含め 国民 当事者 調査 をめぐって 地域 から 聞こえ くる 切実 原発 ツケ めぐる 負担 公平 という もう 一つ 問題 投げかけ いる</t>
-  </si>
-  <si>
-    <t>原発 生み 続ける ごみ どう 処分 する 難問 見つから ない こと 直視 べき 原発 から 出る レベル 放射 廃棄 地下 メートル より 深い 地層 埋める 最終 処分 めぐり 北海道 町村 文献 調査 結果 公表 寿都 周辺 断層 神恵内 ほとんど 火山 圏内 割れ やすい 岩石 広く 分布 する それでも ボーリング など 含む 調査 進める 候補 ある 既存 資料 から 結論 として 理解 できる 現在 科学 知見 限界 あり 自然 災害 想定 超える 先月 能登半島 地震 複数 断層 連動 られ 規模 隆起 確認 廃棄 閉じ込める 場所 探す 慎重 分析 検討 求め られる 現在 最終 処分 計画 に対し 地球 科学 専門 有志 昨年 地殻 変動 激しい 日本 適切 場所 選ぶ 現状 不可能 指摘 する 声明 出し 廃棄 ガラス 固め 金属 粘土 覆う 人工 バリア 疑問 投げかけ むろん 現行 計画 海外 事例 参考 さまざま 専門 意見 踏まえ 作ら いる ただ 日本 ふさわしい やり方 について 継続 議論 神恵内 昨年 １１月 この 声明 呼びかけ人 招い シンポジウム 開か 事業 進める 原子力 発電 環境 整備 機構 ＮＵＭＯ 考え方 違い 浮き彫り なり 来場 アンケート とても 役に立っ 半数 占め 様々 視点 から 議論 深め られる 積極 設ける べき 経済 産業 ＮＵＭＯ 町村 説明 開い いる だが 後続 自治体 現れ ない 長崎 対馬 議会 文献 調査 受け入れ 求める 請願 採択 市長 昨秋 受け入れ ない 方針 いったん 調査 入っ 交付 もらえ 計画 止まら なく なる ない 懸念 あっ いう 原発 復権 前のめり 岸田 政権 昨年 政府 計画 改定 地方 働きかけ 強める 方針 示し ＮＵＭＯ 電力 会社 合同 全国 行脚 始め １月 まで 市町村 首長 訪ね いう 自治体 公表 住民 根強い 不信 警戒 秘密 行動 だろ 疑問 懸念 向き合わ なけれ 何事 進ま ない より 透明 高め いく べき この ページ ＴＯＰ No 00003 2024 18 朝刊 オピニオン 012 ページ 00985 文字 社説 地震 原発 幅広い 視点 教訓 導け 能登半島 地震 原子力 防災 多く 課題 突きつけ 電力 会社 政府 自治体 幅広い 視野 検証 教訓 考える ある 北陸電力 志賀 原発 済み 燃料 プール こぼれ 冷却 ポンプ 一時 止まっ 外部 電源 受ける 変圧 損傷 漏れ 周辺 自治体 設け いる 放射線 測定 設備 一部 データ 送れ なく なっ いずれ 原因 影響 詳細 調べ なけれ なら ない 地震 による 津波 影響 について 北陸電力 当初 敷地 海水 引き込ん いる 水槽 水位 変動 確認 でき なかっ メートル 上昇 変圧 から 漏れ 最初 発表 だっ 相次ぐ 訂正 経済 産業 から 正確 情報 発信 指示 慎重 なる あまり 発表 遅れ なら ない 情報 住民 不安 与え 被害 過小 評価 結果 招き かね ない 電力 会社 含め 教訓 べき だろ 志賀 原発 敷地 断層 評価 めぐり 号機 稼働 審査 長引い いる 有識者 会合 断層 解釈 する 評価 北陸電力 反論 原子力 規制 委員 昨年 同社 見解 認め ところ だっ 一方 規制 今回 地震 知見 収集 する よう 原子力 規制 指示 地震 審査 担当 する 委員 いくつ 断層 連動 動い いる ある 専門 研究 フォロー 審査 いかす ある 発言 おり 丁寧 分析 検討 求め られる 断層 地震 連動 揺れ 想定 施設 影響 など 今回 地震 浮き彫り 課題 志賀 原発 とどまら 全国 原発 多かれ 少なかれ 共通 する 今回 震源 近く かつて 珠洲 原発 検討 教訓 引き出し 規制 防災 役立て なけれ なら ない 今回 地震 道路 寸断 による 半島 孤立 改めて 問題 なっ 四国電力 伊方 原発 東北電力 女川 原発 など 半島 ある 原発 事故 起き 場合 避難 救援 妨げ かね ない 家屋 激しい 損壊 状況 みれ 放射線 避ける ため 屋内 避難 でき ない 恐れ ある 規制 原子力 災害 対策 指針 見直し 検討 する いう 緊急 対応 避難 対策 課題 掘り下げ ほしい 地震 大国 原発 リスク 改めて あらわ なっ 政府 原発 活用 前のめり 姿勢 改める べき</t>
+    <t>福島 原発 北西 福島 飯舘 いいたて 妊婦 乳幼児 避難 せる 明らか 政府 避難 屋内 退避 指示 半径 キロ 外側 これ 大気 土壌 調査 放射線 高い 場所 見つかっ 政府 いま 現行 避難 地域 広げる 検討 放射 物質 飛散 風向き 地形 影響 受ける 同心円 広がる 限ら 飯舘 たち 直面 よう 実態 見直し れる だろ 現在 半径 キロ 以内 避難 キロ 圏内 屋内 退避 原子力 委員 防災 指針 沿っ もの 避難 する 放射線 目安 ミリシーベルト だっ 屋内 退避 短期 想定 指示 だっ 原発 不安定 状態 長引き 放射 物質 放出 続き かね 長期間 さらさ れる 前提 対策 切りかえる 対処 新た 浴びる 放射線 積算 ミリシーベルト なる 場合 避難 基準 する 考え方 伝え 国際 放射線 防護 委員 ＩＣＲＰ 原発 事故 緊急 考え 計算 目安 もとづく 数値 厳しく なる 新しい 基準 使う 避難 地域 なっ 地域 新た 対象 なる ところ くる だろ 避難 住民 負担 強いる なに 最も 住民 ため なる 優先 考え なく なら 放射線 影響 懸念 れる 乳幼児 妊婦 避難 あげ たい 入院 患者 動い もらう マイナス 必需 取り 戻り たい 住民 希望 切実 だろ ため きめ細か 指示 求め られる 避難 地域 見直す 一時 帰宅 進める なる 観測 データ 充実 放射 物質 どう 広がる 予測 する 緊急 放射能 影響 予測 ＳＰＥＥＤＩ システム 使っ 濃度 高く なり やすい 地域 割り出し 観測 より する やり方 あろ ＳＰＥＥＤＩ 先月 公表 予測 限界 明確 うえ 利用 できる よう する べき 現在 放射能 広がり それ リスク 評価 専門 わかり やすく 説明 する それ 周辺 住民 もちろん 国民 理解 得る ため ますます 大切 なっ</t>
+  </si>
+  <si>
+    <t>原発 エネルギー 政策 抜本 見直し 野田 政権 政権 引き継い テーマ ひとつ 野田 首相 政権 方向 踏襲 する 方針 明らか 原発 新設 困難 認識 示し 老朽 危険 高い もの 中長期 原発 依存 下げ いく 考え 妥当 判断 あり 歓迎 する 定期 検査 稼働 厳格 臨む よう 求め たい 原発 事故 絶対 絶対 思考 縛ら 原子力 行政 電力 会社 癒着 生み 情報 流れ 阻ん 改革 摘ん 実態 浮き彫り 野田 政権 ゆがみ 修正 新しい エネルギー 政策 転換 政治 発揮 なけれ なら 問題 よう 枠組み 改革 進め いく エネルギー 政策 従来 経済 産業 所管 事務 つとめる 総合 資源 エネルギー 調査 中長期 電源 確保 盛り込ん エネルギー 計画 定期 示し 内閣 原子力 専門 原子力 委員 ほぼ 原子力 政策 大綱 策定 それぞれ ９月 見直し 動き 始める どちら 原発 推進 積極 担っ 組織 とりわけ エネルギー 政策 立案 熟知 する 一方 電力 会社 原発 利権 絡ん 政治 役所 ＯＢ しがらみ 強い 改革 なる 勢力 抵抗 予想 もと 公正 判断 下せる 懸念 政権 内閣 官房 新た 関係 閣僚 エネルギー 環境 会議 設け 政治 主導 改革 進める 姿勢 示し ７月 まとまっ 会議 中間 整理 原発 依存 低減 分散 電力 システム 構築 将来 示し うえ 電源 ごと コスト 検証 発電 送電 分離 改革 論点 網羅 野田 政権 会議 エネルギー 改革 向け 機関 明示 べき 知識 意欲 もつ 官僚 専門 集め 態勢 強化 エネルギー 調査 既存 組織 改革 肉付け する もの する もとより エネルギー 政策 転換 省庁 超え 政治 課題 中間 整理 通り 国民 議論 せる 不可欠 据え 野田 首相 官邸 主導 期待 たい</t>
+  </si>
+  <si>
+    <t>かつて 原発 事故 起こし 東京電力 よう 処理 いく それ 電力 システム 改革 試金石 なる わけ たち 考え方 示し たい 福島 原発 事故 ともなう 巨額 費用 東電 徹底的 負担 せる ほとんど 異論 まい とても 追いつか だろ 電気 料金 税金 国民 負担 ざる これ 東電 処理 現実 政府 いま 進め 計画 確認 おこ 経営 陥っ 東電 国費 資本 注入 する 既定 路線 電力 供給 滞っ 金融 市場 混乱 する 避ける ため 措置 東電 分の 株式 経営 責任 負う 財務省 慎重 将来 財政 負担 つながり かね 理由 資金 出す あくまで 当面 民間 企業 東電 残し いずれ 返し もらう 思惑 国民 負担 回避 理屈 一見 もっとも らしい 東電 賠償 資金 支援 する ため 施行 原子力 損害 賠償 支援 機構 考え方 立っ 長い いま 東電 存続 せる シナリオ だろ 東電 確実 返済 せる できるだけ 稼い もらわ なけれ なら それ 東電 地域 独占 守り 電力 市場 新規 参入 できるだけ 少なく ほう 得策 電力 改革 まとも つけ なる 発電 売却 思い切っ リストラ 進ま 経営 賠償 できるだけ 抑えよ 誘因 はたらく 被害 交渉 いま 遅れ かね 東電 資金 捻出 する 至難 わざ 費用 ひとつ とっ 溶け 出し 燃料 回収 手法 めど 立っ ふつう 寿命 迎え 原発 かかる れる 事故 最終 撤去 かかる 総額 単位 膨らむ 間違い 福島 原発 残り 福島 原発 含めれ 費用 さらに 増える 足元 火力 発電 増強 燃料 高騰 経営 ゆさぶる 費用 いくら なる 見当 つか 追い込ま れる 東電 新規 投資 手控える だろ 電力 設備 保守 危うく なれ 首都 電力 供給 支障 出る 結局 財政 負担 回避 する ため 東電 利益 確保 せよ する 首都 企業 家庭 法外 料金 値上げ 求め ざる もう 一方 国民 負担 覚悟 うえ 経営 握る ルート 今回 事故 責任 一義的 東電 原子力 発電 国策 あっ 政府 推進 建設 許可 対策 怠慢 放置 まったく 責任 考える はず 薬害 エイズ 肝炎 政策 責任 とっ 被害 救済 賠償 担っ 今回 後始末 引き受ける そこ 決めれ 東電 処理 電力 市場 新しい つなげ られる 国有 意味 そこ もちろん 国民 負担 最小限 とどめる べき ため まず 東電 リストラ 徹底 負債 あてる 原資 最大限 ひねり出す 東電 実質 債務 超過 状態 本来 なら 市場 ルール 破綻 はたん 処理 れる はず 企業 株式 価値 ゼロ する 東電 剰余 取り崩し 資本 国民 税金 投じ られる 株主 損失 負担 する 金融 機関 債権 放棄 求める 融資 事業 リスク 審査 リスク 見合っ 金利 つける 市場 規律 働かせる 金融 役割 かかわら 銀行 東電 条件 資金 提供 地域 独占 電力 会社 あっ 政府 守る 暗黙 理解 あっ それ 原発 リスク 過小 評価 裏返し 金融 機関 結果 責任 とら なけれ なら 社債 東電 担保 付き あり 扱い むずかしい 東電 電気 事業 価値 そのもの 大きく 毀損 きそん 担保 目減り 社債 償還 せる 考え方 はず 市場 対話 重ね 方法 探る べき られ 資金 被害 賠償 優先 あてる ステップ 進む ため できるだけ 早く 解決 なけれ なら もちろん 経営 交代 せる トップ なく 部署 リーダー 社内外 改革 人物 つけ 社員 問題 意識 新しい アイデア 引き出す 発電 資産 大胆 売却 切り離し する 関連 会社 不透明 取引 排除 する 社員 処遇 見直す 企業 年金 破綻 企業 扱い ＯＢ 早期 減額 合意 とりつける 足り やはり 料金 値上げ 頼ら ざる リストラ 徹底 する ぶん 上げ幅 小さく できる はず どちら 選ん 料金 値上げ 国民 負担 避け られ なら 経営 握る ほう いい 明らか 原発 事故 損失 総額 現時点 見通す むずかしい 電力 改革 進む 事業 乗り換える 企業 家庭 増える だろ 東電 自体 解体 進む ため 電気 料金 回収 限界 原発 推進 責任 原子力 予算 組み替え 税金 穴埋め 検討 する 財源 余裕 考えれ 東電 送電 利用 する 課税 どう そう すれ 東電 管内 電気 使う すべて 負担 する なる 不十分 場合 全国 課税 ベース 広げる 東電 管内 税率 高く する 納得 得る 努力 なる だろ できるだけ 日常 生活 経済 影響 少なく する よう 工夫 たい どれ 簡単 原発 事故 提起 問題 国民 全員 向き合う それ 福島 たち 自分 考え 一人ひとり エネルギー 政策 真剣 考える つながる</t>
+  </si>
+  <si>
+    <t>年代 原発 ゼロ 目指す 野田 政権 原発 向け 新しい エネルギー 戦略 決め 茨城 研究 初めて 原子 とも ８月 拡大 一途 だっ 日本 原子力 政策 転換 迎え 稼働 最小限 野田 政権 当初 全廃 慎重 だっ 最終 原発 稼働 ゼロ する 社会 実現 うたっ 原発 抱える 問題 大き 多く 深刻 受け止め 踏まえ 決断 評価 たい いえ 原発 道筋 明確 なっ いえ 戦略 増設 運転 期間 厳格 適用 原子力 規制 委員 認め もの 稼働 原則 掲げ 原発 単純 規制 適用 １月 時点 時点 残る 地震 起きる 極めて 高い 地域 浜岡原発 静岡 断層 影響 懸念 れる 原子 対応 あいまい まま 電力 需給 原発 事故 経験 原発 動かせ 乗り切れる 見通し 立っ 稼働 最小限 抑え 早期 原発 ゼロ どう 達成 する 戦略 盛り込ま 政策 資源 投入 早急 する 巨額 コスト かかる 原子力 政府 支援 保護 なし 成り立た 保護 優遇 停止 支援 ほか 電源 促進 自治体 経済 構造 転換 する ため 制度 組み替え なけれ なら 待た 閉める 電力 会社 経営 影響 緩和 する 手立て だろ 設備 撤去 する 専門 技術 人材 欠か 戦略 責任 対策 講じる 原発 特定 法人 集約 管理 する 国有 議論 対象 なろ 核燃 サイクル 凍結 問題 原発 かかる 経済 政治 コスト 火力 発電 当面 電源 なり 燃料 膨らむ 問題 軽視 でき 電気 料金 値上げ やむをえ 節電 余地 生み にくい 企業 考えれ 限界 戦略 指摘 する よう 官民 あげ 天然 ガス 輸入 価格 下げる 努力 欠か 価格 安い 石炭 火力 二酸化炭素 排出 減ら せる 最新 技術 実用 支援 態勢 充実 たい 地産 はじめ する 自然 エネルギー 育成 言うまでもない 政治 課題 燃料 サイクル 政策 見直し 原発 ゼロ 目ざす 済み 燃料 処理 する なく なる 処理 施設 受け入れ 青森 廃棄 押しつけ られ かね 反発 原子力 協定 結ぶ 米国 保障 問題 懸念 示し いう 摩擦 大きい 決断 先送り いけ かえって 使い道 プルトニウム 置き場 放射 廃棄 増やす なる 事業 凍結 責任 もっ 後始末 あたる べき 青森 関係 各国 協議 済み 燃料 する 中間 貯蔵 施設 確保 あげる 消費 含め 国民 検討 市場 活用 政界 すでに 政権 交代 色めき たっ 政党 政権 つこ 原発 減らし たい 国民 意志 無視 でき まい よう 枠組み 設けれ 原発 長期 取り組み なる だろ 一つ 法制 原子力 見直し なく 原発 理念 明確 法律 あれ 拘束 生じる 見直し 国会 審議 なり 透明 担保 れる もう 一つ 市場 活用 する 電力 改革 進め 地域 独占 廃止 発電 分野 自由 競争 促す 原子力 規制 委員 電力 会社 事情 配慮 する なく 極めて 厳格 基準 設ける 競争 なか 確保 ため 追加 投資 経済 見合わ なけれ 電力 会社 原発 依存 自然 減っ いく 原発 ゼロ 現実 批判 放射 廃棄 処分 見つから 原発 リスク 抱え 電力 会社 国民 信頼 失っ それ 現実 簡単 努力 工夫 重ね 原発 道筋 確か もの しよ</t>
+  </si>
+  <si>
+    <t>済み 燃料 処理 取り出し プルトニウム 燃料 利用 する 核燃 サイクル 日本 長年 国策 追い求め 国内 サイクル 実現 プルトニウム 利用 ウラン 原発 割高 プルトニウム 消費 だっ 高速 増殖 原型 もんじゅ 事故 挫折 プルトニウム ウラン 混合 燃料 発電 福島 原発 事故 見通せ すでに 海外 処理 委託 含め トン プルトニウム たまっ うち 日本 国内 トン 計算 核兵器 つくれる 当たる 安倍 首相 できる 限り 原発 依存 低減 いく 首相 核燃 サイクル 事業 継続 せる 考え 示し 青森 六ケ所 処理 工場 トラブル 続き 延期 １０月 本格 稼働 めざし まま 動かせ プルトニウム さらに 増える 公算 大きい 矛盾 言わ ざる 政策 国際 政治 現実 プルトニウム 利用 マイナス 大きい 北朝鮮 イラン 開発 拡散 問題 世界 保障 深刻 落とす 非核 規模 処理 容認 日本 被爆 体験 持ち 非核 原則 国是 日本 信頼 裏返し 使い道 明確 プルトニウム ためこめ 信頼 つく 他国 日本 まね プルトニウム 利用 求め 待った かけ にくい 米国 懸念 根強い ホワイトハウス 科学 技術 政策 次長 つとめ メリーランド 大学 スティーブ・フェッター 教授 次長 在任 処理 反対 だっ 処理 工場 本格 稼働 プルトニウム さらに 増えれ 国際 理解 得る 難しく なる 危惧 する 原子力 規制 委員 処理 工場 基準 まとめる それ 待た 本格 稼働 急ぐ 現在 考え られる 最良 選択 済み 燃料 処理 空冷 貯蔵 容器 乾式 貯蔵 容器 する 乾式 貯蔵 改善 欧米 実績 あり 最終 処分 未来 技術 判断 すれ いい 次世代 拡散 リスク 背負わ なく すむ よう 処理 撤退 決断 べき</t>
+  </si>
+  <si>
+    <t>日本 政府 途上 原発 輸出 血道 あげ 安倍 首相 今週 トルコ 訪問 三菱重工業 中心 企業 連合 原発 受注 成果 帰国 福島 原発 放射 物質 汚染 流出 続く 遅れ 事故 収束 めど いっこうに たた 見え 避難 生活 強い られ 住民 よく 原発 売れる もの 怒り あがる 国内 原発 転換 求める 多く 国民 向け 原発 政策 あいまい 続ける 海外 あたかも 事故 経験 日本 原発 技術 高め よう 売り込む 考え違い トルコ エルドアン 首相 記者 会見 安倍 首相 原発 事故 教訓 世界 共有 する 世界 原子力 向上 図っ いく 我が国 責務 述べ 目標 正しい 場当たり 事故 対応 世界 不信 招い 実態 津波 地震 事故 影響 与え どう わかっ 有数 地震国 トルコ 売り込む 自信 どこ くる 事故 賠償 責任 心配 カリフォルニア 原発 決め 電力 会社 損害 ドル のぼる 主張 原因 なる 放射能 漏れ 起こし 蒸気 発生 納入 三菱重工 グループ 契約 上限 超え 賠償 する よう 求め よう 引き渡し 知ら いか なく なっ 首相 自ら 売り込み 事故 起き 日本 政府 賠償 保証 くれる 受け止め られ 途上 多かれ 少なかれ 政情 不安定 原発 テロ 物質 核兵器 転用 リスク 日本 政府 どこ 真剣 考え 疑問 エルドアン 首相 会見 事故 いっ 自動車 飛行機 乗ら わけ いか 述べ 福島 事故 原発 危険 飛行機 同列 扱え 見せつけ 断層 論議 周辺 住民 広域 避難 計画 づくり 通し 地震国 原発 持つ 困難 よく わかっ 済み 燃料 最終 処分 暗礁 乗り上げ 安倍 政権 原発 輸出 成長 戦略 据える 山積 する 問題 つぐん 売り込む 倫理 とる</t>
+  </si>
+  <si>
+    <t>新た 神話 形づくら れよ 安倍 政権 示し エネルギー 計画 原発 稼働 手順 示さ 原子力 規制 委員 専門 判断 委ねる 規制 規制 基準 適合 認め 原発 稼働 進める 自治体 理解 協力 られる よう 立つ 要するに 規制 基準 適合 原発 支援 動かす わけ 安倍 首相 参院 予算 委員 世界 最も 厳しい 基準 判断 もの 稼働 いき たい 述べ 閣僚 規制 判断 宣言 みなす 発言 相次ぐ 規制 田中 俊一 委員 ども 絶対 申し上げ お墨付き 与える ため やっ 意識 いう 確認 おき たい 新しい 規制 基準 原発 事故 ずっと 厳しい 万全 放射能 原発 敷地 放散 場合 周辺 住民 避難 規制 基準 避難 計画 入っ 計画 づくり 実施 自治体 仕事 なっ 規制 基準 適合 判断 いっ 住民 保証 れる わけ 人口 密集 近い 東海 茨城 浜岡 静岡 原発 県庁 所在地 島根 原発 電力 事業 稼働 めざし 防災 計画 策定 義務づけ られ キロ 圏内 人口 東海 浜岡 島根 のぼる 格納 容器 破損 する 事態 なれ 時間 以内 キロ 圏内 避難 試算 津波 地震 伴う 複合 災害 なれ 道路 寸断 渋滞 起きる だろ これ 被曝 ひばく 避難 せる できる 日常 砕か れる 住民 賠償 仕組み 全く 不備 だっ 福島 事故 明らか なっ 日本 だっ 東京電力 支払い 不安 だらけ 事業 なら 困難 新た 仕組み 詰め まま 見切り 発車 する 事故 教訓 ひとつ 備える 規制 適合 判断 どこ リスク 減ら せる それ 足り もの そこ 見極め 国民 正直 説明 する 政治 使命 規制 判断 もっ 住民 守る 論議 終止符 打つ</t>
+  </si>
+  <si>
+    <t>九州電力 川内 せんだい 原発 稼働 めぐり きょう 地元 鹿児島 県議会 臨時 議会 開く 稼働 推進 陳情 採択 れる 公算 大きい 段階 川内原 稼働 進める 無責任 あり 反対 原子力 規制 委員 原発 設備 詳細 審査 保安 規定 審査 まだ 終え 県議会 知事 稼働 同意 急ぐ べき 問題 住民 避難 計画 原発 事故 規制 放射 物質 飛散 する 過酷 事故 起こり うる 原発 審査 採り入れ 過酷 事故 対応 手順 審査 する よう なっ 前進 過酷 事故 起こり うる 前提 原発 防災 対策 眺める 比べ 住民 避難 計画 目立つ 整然と 避難 できる なっ 避難 バス 台数 確定 だっ 具合 原発 事故 踏まえ 道府県 おおむね キロ 圏内 市町村 避難 計画 策定 義務づけ られ 規制 計画 作り 関与 地元 自治体 投げ 状態 現状 避難 計画 だれ 審査 おら いざ とき 使える 保証 北陸電力 志賀 しか 原発 事故 想定 実施 原子力 総合 防災 訓練 悪天候 住民 避難 でき なかっ 同様 起き かね 原発 キロ 全国 自治体 首長 対象 朝日新聞 実施 アンケート 近い 避難 計画 審査 対象 含める べき 答え 早急 法制 実効 担保 避難 計画 策定 べき 川内原 名指し 規制 火山 噴火 リスク 取り扱い 日本 火山 学会 異議 唱え 噴火 予測 限界 あいまい 理解 不十分 福島 原発 事故 津波 危険 主張 する 専門 事故 防げ なかっ 規制 電力 会社 火山 学会 主張 謙虚 傾ける べき 火山 リスク 原発 だれ 保証 でき 象徴 いえる 自治体 首長 福島 起き 津波 地震 原発 事故 対応 する 言っ いい 信じ 発言 飛び出す 神話 回帰 失敗 繰り返し なら</t>
+  </si>
+  <si>
+    <t>東日本 大震災 すべて 原発 止まっ まもなく たつ 冷暖房 電気 多く 使う 規模 停電 引き起こす なく 乗り切っ 福島 原発 事故 国家 存亡 危機 招き 収束 原発 知っ 不便 あっ 原発 止まっ まま たい 各種 世論 調査 半数 稼働 反対 思い 表れ だろ 安倍 政権 原発 回帰 しよ ８月 九州電力 川内原 鹿児島 稼働 いずれ 日本 電源 原発 まかなう 目指し なし崩し 原発 回帰 反対 する 国民 生活 負担 かかり すぎ よう 配慮 稼働 努力 最大限 する べき 目指す べき エネルギー 社会 再生 エネルギー 主軸 あり 原発 電源 なる 社会 避け られ 電力 朝日新聞 ７月 社説 原発 ゼロ 社会 提言 古い 原発 危険 高い 原発 閉め めど すべて する 稼働 せる 原発 選び 需給 もの 限る 節電 省エネ 対策 進め エネ 開発 普及 あげる 当面 火力 発電 強化 長期 原発 温暖 両立 せる 多様 事業 新規 参入 促す 電力 改革 進め 消費 知恵 選択 生きる 分権 エネルギー 社会 転換 する 考え方 変わら 年間 状況 変わっ 最も 劇的 だっ 原発 発電 ゼロ なっ 全国 原発 動い その後 定期 点検 ため 次々 休止 一時 関西電力 大飯原発 福井 動い ９月 以降 一つ 原発 稼働 この間 心配 電力 起き なかっ 緊急 電源 かき集め しのぐ 局面 あっ 節電 定着 はじめ 火力 能力 高め 電力 会社 垣根 越え 電力 融通 あっ する まかなえ 原発 稼働 ゼロ まま 定着 せる 環境 盤石 なっ まだ 言え 規模 発電 遠方 消費 電気 送る 供給 態勢 原発 事故 そのまま 残る システム 脆弱 ぜいじゃく 克服 電力 ピーク 火力 発電 故障 すれ 不測 事態 起きる 消え システム 脆弱 電力 火力 頼っ 現状 持続 言え だろ エネルギー 輸入 頼る 為替 価格 変動 リスク 常に さらさ れる 電気 料金 国民 日本 経済 値上げ 程度 許容 できる 詳細 調査 まま 値上げ 生活 経済 活動 深刻 影響 与える 避け なけれ なら 国民 生活 深刻 影響 与える リスク ゼロ なっ そう 考えれ 手段 稼働 選択肢 否定 する 難しい 個々 原発 判断 きわめて 慎重 なけれ なら 原発 動かす 不利益 回避 できる 電力 広域 融通 電力 応え 稼働 観点 納得 いく 説明 でき なけれ なら 原発 条件 確保 周辺 住民 避難 できる 手段 整っ 前提 なる 稼働 ゼロ 実績 それだけ 稼働 ハードル 高く 状況 もと できるだけ 早く エネ 育て 分散 電力 システム 切り替え いく ため 新た 方向 誘導 する 政策 努力 欠か 政府 改革 道筋 立て 送電 充実 原発 ゴミ 処分 資源 せる 進める 態勢 づくり 収益 だっ 原発 失う 自治体 支援 原発 関連 事業 経過 措置 なる 原点 福島 原発 安倍 政権 行こ 原発 依存 限り 低減 する 原発 維持 する 方向 転じ 原子力 規制 委員 ＯＫ 原発 すべて 動かす 判断 投げ 規制 発電 限っ 物理 見る すぎ 政策 責任 負う もの 自治体 責任 持つ いい 中身 川内原 場合 住民 確保 火山 噴火 問題 積み残し まま 原発 考える 原点 福島 原発 事故 原発 動い 実績 生かす 考える べき</t>
+  </si>
+  <si>
+    <t>まるで 福島 原発 事故 司法 逆戻り よう 福井 地裁 きのう 関西電力 高浜原発 号機 福井 稼働 禁じ ４月 地裁 仮処分 決定 取り消し 規制 基準 ４月 決定 緩やか 過ぎ 適合 原発 確保 断じて 今回 高度 専門 独立 有する 原子力 規制 委員 審査 する 規制 基準 枠組み 規制 審査 判断 不合理 結論づけ 同時に 審理 大飯原発 号機 運転 差し止め 仮処分 申請 稼働 差し迫っ いえ 却下 ４月 決定 以降 四つ 原発 耐震 設計 目安 なる 基準 地震動 超える 地震 済み 燃料 プール 設備 堅固 指摘 これら 今回 決定 危険 社会 通念 無視 得る 程度 管理 述べ 原子力 専門 知見 尊重 審査 見過ごせ 落ち度 限り 司法 専門 技術 判断 踏み込ま 四国電力 伊方 原発 訴訟 最高裁 示し 判例 今回 決定 考え方 踏襲 いえる 枠組み 司法 判断 避け 続ける 福島 事故 起き なかっ 原発 ひとたび 事故 起こせ 広範囲 長期間 計り 知れ 被害 もたらす 専門 判断 委ね 深刻 事故 めったに 起き 前提 立っ よう 今回 決定 想定 事故 起こり 得る 視点 欠け 原発 あり方 考える 大切 論点 だっ はず 関電 高浜 稼働 遅れる ごと 経済 損失 出る 主張 司法 ストッパー 外れ 稼働 向け 手続き 加速 する 原発 国民 厳しい 視線 注が 忘れ なら 電力 会社 原発 稼働 同意 得る 地元 範囲 原発 自治体 限っ 高浜原発 キロ 圏内 京都 滋賀 含ま れる 同意 得る 範囲 見直す べき 福井 多く 原発 集まる リスク 議論 不十分 政府 電力 会社 これら 問題 置き去り まま 稼働 突き進む 許さ</t>
+  </si>
+  <si>
+    <t>古い 原発 計画 原発 減らし いく 東京電力 福島 原発 事故 反省 決め ルール 早く 骨抜き なろ 原子力 規制 委員 運転 開始 超え 関西電力 高浜原発 号機 福井 規制 基準 満たし 正式 決め 基準 もと 老朽 原発 運転 延長 認め られる 初めて 残る 細かい 審査 ７月 期限 終えれ あと 運転 続く 公算 大きい ルール 福島 事故 法律 改正 導入 最長 年間 定め られ 運転 延長 極めて 例外 位置づけ られ あえて 例外 設け 電力 備える ため だっ 節電 省エネ 定着 懸念 解消 言っ いい おりしも 熊本 中心 経験 はずれ 気象庁 地震 続く 鹿児島 運転 九州電力 川内原 影響 及ば 不安 感じ 国民 少なく いきなり 例外 認め 規制 緩める よう 対応 原発 行政 不信 高める 安倍 政権 個別 原発 可否 判断 規制 投げ 運転 延長 前提 エネルギー 計画 立て 原発 依存 限り 低減 する 繰り返し 首相 なしくずし 方針 転換 規制 あくまで 科学 見地 原発 高める 役割 今回 審査 耐震 試験 後回し する 関電 認める 手順 疑問 残る ７月 審査 期限 にらん スケジュール あり だっ すれ まさに 本末転倒 結局 する どう 実質 判断 電力 会社 委ね られ 運転 延長 採算 合う どう 観点 決まる 状況 なり 狭い 国土 多く 住み 地震 自然 災害 多い 日本 多く 原発 抱え いく リスク 大きい 福島 事故 そこ 原子力 行政 見直し 出発 だっ はず 原発 維持 する 政策 とり 続けれ 廃棄 処理 長期 国民 負担 増え かね エネルギー 自給 再生 エネルギー 育成 高めよ 世界 大勢 移行 期間 着実 原発 閉じ いく 政策 あろ 規制 ため 一つ 思い起こす べき</t>
+  </si>
+  <si>
+    <t>カ月 歳月 地球 一瞬 まばたき する 時間 きのう 早朝 起き 東日本 大震災 余震 られる 地震 忘れっぽい 人間 記憶 呼び覚ます もの なっ まどろみ 追い立てる よう 揺れ 東北 関東 襲っ 福島 震源 する マグニチュード 地震 宮城 仙台 メートル 津波 記録 国内 大震災 なっ ３月 本震 余震 活動 領域 れる 場所 地震 起き きのう 地域 地震 活動 落ち着い わけ 程度 揺れ 警戒 津波 気象庁 予想 違う あらわれ 宮城 当初 注意報 発令 仙台 想定 超える 観測 津波 到達 警報 引き上げ られ 震源 近い 福島 小名浜 はま 仙台 高く なっ 理由 気象庁 詳しく わから 地震 規模 それほど なく 震源 浅けれ 断層 ずれ 津波 大きく なる 予想 限界 とめ 守る 行動 取り たい 多く たち ひやりと 東京電力 福島 原発 済み 燃料 する プール 冷却 循環 せる ポンプ 一時 止まっ 地震 水位 変動 検知 自動 停止 装置 働い ため 自体 問題 直後 福島 原発 プール 冷却 停止 燃料 損傷 放射 物質 放出 真剣 危ぶま それ 考える 教訓 忘れ られ 心配 なる 原子力 規制 委員 済み 燃料 なく 空気 自然 対流 冷やす 乾式 貯蔵 導入 電力 会社 求め 敷地 長期 貯蔵 開く なり 地元 反発 燃料 サイクル 路線 見直し 招き かね する 電力 反応 鈍い ここ 確保 考え 実現 急ぐ べき 今回 地震 福島 原発 敷地 タンク たまり 続ける 汚染 リスク 改めて 人々 向け させ 一つ 一つ 災害 謙虚 学び 個人 企業 社会 着実 対策 講じる 今日 起きる 知れ 災害 備える それ</t>
+  </si>
+  <si>
+    <t>東日本 大震災 まもなく 復興 まだ 半ば とりわけ 原発 被災 福島 避難 生活 強い られ 地域 社会 再生 見え 原発 事故 被害 処理 費用 膨らみ 続け かかわら 政権 原発 基幹 電源 積極 使う 構え 事故 惨禍 目の当たり 原発 頼り 続ける だろ 政府 電力 業界 言う よう 本当に 原発 安い 膨らみ 続ける 費用 東京 都内 ホール 福島 原発 事故 避難 強い られ 福島 浪江 ２月 開い 住民 懇談 避難 たち 次々 悲痛 上げ 終わっ 連絡 線量 下がっ これ 帰れ たち 原発 事故 追い出さ 帰れ 東電 家賃 払い 続ける べき 浪江 中心 今月 避難 指示 解除 住民 戻れる よう なる 楢葉 指示 すでに 解除 地区 帰還 ところ 多く 先行き 厳しい 炉心 溶融 起こし 原子 内部 惨状 ようやく 見え 始め ところ 高熱 曲がっ 鉄格子 こびりつい 黒い 東京電力 号機 調査 ロボット 投入 人間 なら 足らず 致死 達する 強い 放射線 堆積 たいせき 途中 阻ま 溶け 落ち 燃料 取り出す 道筋 見当 つか 賠償 費用 経済 産業 昨年 総額 のぼる 見通し 示し 従来 想定 巨額 負担 電気 料金 税金 国民 のしかかる 壊さ 生活 地域 社会 金銭 表せ 被害 痛手 計り 知れ 保護 あり 政府 政府 東電 つぶさ ため 支援 てこ入れ 乗り出し 東電 原発 持つ 電力 大手 各社 負担 賠償 年間 電力 自由 参入 電力 一部 負担 せる 方針 これ 自由 めざす 消費 利益 原発 保護 優先 する やり方 ほかなら 原発 持た 電力 原発 固有 コスト 押しつけ 大手 負担 軽く する なりふり 構わ 姿勢 浮かび上がる 原発 もはや 強力 政策 支援 成り立た 実態 福島 事故 費用 織り込ん 原発 コスト 優位 変わら 言う 引き合い 出す 示し 試算 原発 新設 する 場合 発電 コスト 火力 自然 エネルギー 電源 低い する 年度 時点 電気 原発 まかなう 政策 根拠 これ さまざま 疑問 原発 批判 専門 試算 原発 トラブル なく 長く 運転 できる 前提 過去 稼働 状況 費用 実績 もと 計算 すれ 発電 コスト 高く なる 建設 費用 震災 世界 上昇 指摘 する 試算 費用 見積もり 置き すぎ 項目 つく 燃料 サイクル 技術 確立 おら 進め方 未定 多い 長年 懸案 レベル 放射 廃棄 最終 処分 選び 遅々 進ま これら 既存 原発 かかわる 問題 歴代 政権 原発 推進 振り 課題 先送り しのぎ 繰り返し やり方 もはや 限界 原発 エネルギー 計画 見直す 時期 当たる とらえ 原発 はじめ 電源 経済 リスク 利点 精査 計画 せる べき 原発 推進 なく 批判 専門 招き 多角 検討 する 欠か 海外 向けれ ドイツ 台湾 原発 決め 先進 原発 前倒し 閉鎖 原発 依存 下げる 目標 掲げ する 動き 重視 する 社会 事故 廃棄 対策 解決 でき 原発 余る もの なり きっかけ なっ 福島 事故 だっ 規制 強化 コスト 上昇 東芝 経営 危機 つながっ 安倍 政権 なす べき 原発 取り巻く 現実 稼働 慎重 民意 向き合い 原発 依存 着実 下げ いく 真剣 練る 閉鎖 原子力 ムラ 論理 利か 神話 はびこっ 結果 福島 起き 年間 いま 思い起こし エネルギー 政策 持続 もの 作り替え なけれ なら</t>
+  </si>
+  <si>
+    <t>福島 原発 事故 起こし 後始末 追わ れる 東京電力 原発 動かす 認め よい 国民 説明 理解 得る 責任 政府 それ 果たさ まま なし崩し 稼働 進める 許さ 東電 稼働 めざす 柏崎 刈羽 原発 新潟 原子力 規制 委員 技術 基準 満たす する 審査 結果 まとめ 手続き 山場 越え 原発 回帰 加速 つながる 節目 投げ 姿勢 政権 安倍 政権 規制 基準 適合 規制 認めれ 判断 尊重 地元 理解 稼働 する 姿勢 進め方 大切 抜け落ち 稼働 本来 規制 自治体 判断 投げ する なく 事故 リスク 対策 社会 踏まえ 総合 判断 べき もの 東電 柏崎 刈羽 全国 原発 とりわけ 検討 する べき 課題 多く 重い 事故 被害 納得 する 避難 計画 含め 確保 周辺 住民 不安 拭える 事故 処理 費用 まかなう 目的 強調 れる 電力 供給 電気 料金 対策 不可欠 事故 反省 立ち 原発 依存 どう 下げ いく 疑問 福島 新潟 はじめ 多く 国民 抱く 政府 答え なけれ なら 規制 原発 施設 専門 技術 チェック する 役回り すぎ 今回 東電 特例 原発 動かす 資格 見極めよ それ 自体 稼働 手続き 不備 表し 規制 議論 東電 文化 閉鎖 体質 改善 でき 福島 人手 資金 取ら れる 柏崎 刈羽 対策 おろそか なら いっ 姿勢 妥当 経営 体制 組織 運営 踏み込ま まま 責任 持つ 東電 社長 決意 もと 合格 拙速 判断 言わ ざる 手続き 見直し 稼働 手続き 規制 委任 自治体 任せ 電力 会社 任せ なっ 見直し しっかり 責任 持つ 仕組み する 不可欠 規制 審査 基準 政権 世界 もっとも 厳しい 強調 する 規制 最低限 繰り返す 政権 まず 規制 保証 よう 印象づける 姿勢 改め なけれ なら 事故 避難 計画 規制 審査 対象 なっ おら 政府 対応 求め られる 自治体 関係 課題 規制 手続き 終わる 市町村 同意 焦点 なる 電力 会社 協定 基づく 手順 すぎ ひとたび 過酷 事故 起き 被害 深刻 考えれ 同意 手続き 法的 位置づけ 関与 する べき 避難 計画 策定 義務づけ られ 原発 キロ 圏内 すべて 自治体 政府 一緒 協議 する 計画 実効 稼働 幅広く 検討 運転 認める 判断 する 仕組み 個々 原発 動かす どう 政府 電力 各社 経営 判断 問題 出る 避け 原発 さまざま 政策 支える 国策 民営 続け おり 事業 任せ すまさ 東電 事故 伴う 賠償 自前 でき 実質 国有 経営 方針 差配 経済 産業 稼働 疑問 不安 答える 責任 政府 東電 果たす べき 原発 問い 直す 契機 柏崎 刈羽 審査 合格 日本 原発 影響 及ぼす これ 規制 審査 通っ 西日本 加圧水 福島 沸騰水 柏崎 刈羽 なる これ 呼び水 なり 東日本 稼働 流れ 強まり そう 柏崎 刈羽 再び 動け 地方 原発 リスク 背負わ 電気 消費 恩恵 受ける 構図 首都 復活 する なる 福島 事故 過ぎ 被害 癒え 原発 批判 世論 占める 状況 変わら 果たす べき 責任 あいまい まま 稼働 既成 事実 積み重ね られ いく 状況 見過ごす わけ いか 原発 問題 社会 向き合う 衆院 各党 考え 明確 示し 国会 議論 つなげる 国民 改めて 考える 柏崎 刈羽 稼働 問題 契機 なけれ なら</t>
+  </si>
+  <si>
+    <t>事故 なく まだ 事故 続い 原子力 規制 委員 ふけ 豊志 委員 先週 会見 こう 強調 史上 原発 事故 起こし 福島 原発 表面 落ち着き 取り戻し よう 見える 原子 建屋 周辺 除き 構内 ほとんど 場所 防護 なし 入れる よう なっ 炉心 溶け 落ち 燃料 デブリ プール 済み 燃料 冷却 する 手段 確立 再び 放射 物質 まき散らす リスク 下がっ 規制 道のり 山頂 見える 状況 なく 勾配 待ち受け わかっ 実情 政府 昨年 工程 改訂 目標 維持 号機 プール 燃料 取り出し 開始 年度 遅らせ 炉心 周辺 ぼんやり 様子 わかっ 過ぎ デブリ 取り出す 工法 決定 年度 先送り 時間 たつ タンク トン 達し 放射 物質 含む さらに 増え いく 費用 膨らむ 国民 負担 はね返る むやみ 急げ 作業 被曝 ひばく 事故 リスク 大きく なる 東京電力 昨夏 作業 トラブル 不適合 公表 作業 けが 急病 複数 作業 同時に 進む 車両 衝突 応急 措置 機器 劣化 法令 触れ 事例 中心 毎日 よう 問題 報告 作業 確保 する 環境 汚染 リスク 低減 着実 進める 多角 目配り なる 周辺 住民 国民 状況 説明 傾ける 欠か 内外 有識者 東電 原子力 改革 監視 委員 規制 東電 収益 優先 傾く 懸念 する たびたび 漏れる 実質 国有 救済 東電 原発 優先 向き合う べき 課題 人材 資金 しっかり 投入 する 事故 起こし 事業 責務 安倍 首相 五輪 招致 演説 原発 汚染 アンダー コントロール 管理 アピール その後 汚染 対策 難航 ぶり 楽観 許さ 東電 東電 指導 監督 監視 する 経済 産業 規制 銘じ ほしい</t>
+  </si>
+  <si>
+    <t>原則 運転 期限 迫る 東海 原発 茨城 原子力 規制 委員 運転 延長 認め これ 日本原子力発電 原電 めざす 稼働 技術 審査 ほぼ 終わっ 東海 運転 懸念 疑問 多い 人口 密集 事故 避難 難しい 首都 老朽 原発 原則 超え 長く 動かす 正当 理由 見当たら 稼働 認め られ 運転 期間 ルール 設計 古い 原発 退場 促す ため 規制 東京電力 福島 原発 事故 強化 対策 一つ 規制 認めれ 延長 できる 導入 政府 極めて 限定 ケース 説明 場合 これ 当たる あいまい 申請 通り 延長 認め られ 原発 今回 東海 なっ 例外 既成 事実 積み重ね られれ ルール 形骸 進み かね 原発 依存 着実 下げる 観点 老朽 原発 規制 あり方 問い 直す 東海 固有 問題 山積み 事故 想定 避難 計画 対象 なる キロ 人口 全国 原発 最多 年寄り 障害 運ぶ 手段 確保 難題 多く 自治体 計画 づくり 遅れ さき 焦点 なる 地元 同意 ハードル 高い 稼働 茨城 自治体 東海 別に 周辺 実質 事前 持つ そのうち 水戸 議会 那珂 市長 反対 見込ま れる 対策 工事 問題 見過ごせ 経営 原電 自力 資金 調達 でき 株主 電気 販売 東電 東北電力 支援 もらう 方針 東電 福島 事故 実質 国有 救済 巨額 国民 負担 延命 他社 助ける 資格 極めて 疑問 見切り 発車 工事 進め 地元 同意 られ なけれ 巨額 投資 無駄 なる 原電 まず 地元 対話 注力 べき 東電 支援 リスク 見極め 説明 尽くさ なら 関係 自治体 住民 確保 重い 責任 負っ 東海 東日本 大震災 被災 冷温 停止 手間取っ 住民 根強い 不安 拭える 実効 避難 計画 体制 つくれる これら 真剣 考え 優先 する 姿勢 貫い もらい たい</t>
+  </si>
+  <si>
+    <t>相手 同意 得る めど たた 見切り 発車 原発 動かす 準備 進め 外堀 埋め いく やり方 地元 不安 疑問 深まる 東海 原発 茨城 稼働 めざす 日本原子力発電 原電 地元 住民 説明 始め 原子力 規制 委員 審査 結果 規制 基準 対応 する 対策 工事 説明 理解 広げる らい 原電 昨年 地元 協定 結ん 稼働 協定 事前 協議 実質 事前 得る 定める すべて 同意 肝心 はっきり 原電 解釈 食い違い 表面 地元 納得 なけれ 稼働 進め 受け止め 多い 原電 とことん 協議 する あいまい 態度 続け 不信 招い 事実 同意 市町村 なく 周辺 広げ 茨城 方式 稼働 手続き 欠陥 正す うえ 意義 大きい 事故 リスク 避難 対策 負わさ れる 周辺 市町村 関与 望む 原発 地域 茨城 動向 注視 する 原電 協定 結ん 広く 地元 信頼 得る ため だっ はず 意向 沿っ 運用 なけれ なら 協定 同意 ハードル 大幅 上がり 協議 どう 進める 見え 原電 対策 工事 本格 せる 構え 稼働 向け 既成 事実 積み重ねる よう 姿勢 地元 不誠実 言わ ざる 東海 東日本 大震災 被災 古い 原発 住民 不安 根強い 県内 市町村 半数 議会 稼働 反対 する 趣旨 意見 可決 キロ 圏内 人口 全国 原発 最多 のぼり 市町村 避難 計画 づくり 難航 検証 作業 続け 原電 地元 不安 要望 真摯 しんし 向き合い 自治体 住民 対話 注力 べき 工事 進める 経営 リスク 責任 生じる 少なくとも 見込ま れる 費用 経営 原電 自力 調達 でき 株主 東京電力 支援 もらう 方針 福島 原発 事故 起こし 実質 国有 東電 とりわけ 重い 説明 責任 地元 同意 られ なけれ 巨額 資金 無駄 なる 場合 関係 各社 経営 結果 責任 厳しく 問わ れる 忘れ なら</t>
+  </si>
+  <si>
+    <t>東京電力 福島 原発 構内 表面 事故 後片付け 一段落 よう 見える 原子 溶け 落ち 燃料 ブリ ほぼ 手つかず まま 放射 物質 汚染 止まら 浄化 処理 貯水 タンク 超え たっ 行く末 見通せ ひとたび 原発 事故 起こせ 難い 負う それ 現実 軽視 許さ 福島 事故 教訓 日本 原発 頼ら 社会 めざす べき 朝日新聞 これ 社説 そう 訴え 世論 調査 原発 稼働 否定 強い 国民 不安 事業 政府 震災 原発 再び 動かす 優先 徹底 する 誓っ はず 痛み 風化 心配 なる でき ごと 相次い 先月 敦賀 原発 号機 規制 基準 もとづく 審査 事業 日本原子力発電 ボーリング 調査 データ 黙っ 書き換え 発覚 原子力 規制 委員 豊志 委員 科学 常識 照らし おかしい あきれかえる 異例 事態 原電 原発 専業 保有 する うち 決め おり 敦賀 号機 運転 でき 経営 苦しい 稼働 認め もらう ため 都合 よく データ 書き換え そう 疑わ 仕方 稼働 原発 止め たく 電力 業界 姿勢 あらわ なっ 関西 四国 九州 電力 昨年 ４月 テロ 対策 工事 期限 延ばす よう 規制 求め 工事 間に合わ 運転 停止 命じ られる 事態 避け たかっ これ 規制 却下 先週 まず 川内原 号機 止まっ 段階 ゼロ めざせ 事故 あっ 原発 うち 稼働 とどまる 発電 占め 原発 比率 いま すぎ 火力 発電 続ける 燃料 かさん 経営 圧迫 れる 電力 業界 稼働 運転 継続 望む 背景 台所 事情 電力 会社 自ら 利益 ため 二の次 する 言語道断 事故 起こせ 社会 人々 暮らし 深い 負わ しまう 忘れ なら 気がかり ほか 運転 期間 ルール 見直し より 長く 原発 使い 続けよ 考え方 法律 原発 運転 原則 年間 規制 認め 場合 限度 延長 できる 経団連 昨年 ４月 政策 提言 最長 さらに 延ばす 検討 する よう 政府 求め 古い 原発 閉め 不測 事故 未然 防ぐ ルール 趣旨 あくまで 例外 だっ はず 延長 これ 認め られ 運転 期間 さらに 延ばす 経済 優先 する もの 容認 がたい 原発 地球 温暖 対策 役立つ 気候 危機 回避 する 二酸化炭素 排出 多い 火力 発電 減らさ なら 太陽光 風力 再生 エネルギー まだ 穴埋め でき 現時点 原発 否定 する 難しい だろ 担保 する ルール 変え 長く 原発 使う 認め られ 古く なっ もの 退か 段階 ゼロ めざす 事故 不安 なくす それ 世界 潮流 見すえ 原発 ゼロ 時代 電力 確保 温室 効果 ガス 排出 抑える 原発 残っ エネ 育てる 天候 まかせ 不安定 エネ 短所 口実 立ち止まっ 時間 エネ 事故 リスク なく 処分 困る 放射 廃棄 無縁 発電 コスト 海外 最も 安く なっ 長所 短所 補っ あまり 多く 国々 急速 広がっ 残念 日本 エネ 拡大 世界 潮流 乗り遅れ 原因 原発 固執 する 政府 姿勢 現行 エネルギー 計画 エネ 主力 電源 する 目標 掲げる 一方 年度 電源 構成 原発 エネ ほぼ 比率 基幹 電源 位置づけ 安倍 政権 原発 ゼロ 無責任 稼働 進め ほか 済み 燃料 プルトニウム 取り出し 再び 原発 燃やす 燃料 サイクル 政策 破綻 はたん 認め 官民 もたれ あっ 原子力 政策 維持 続ける よう エネ 拡大 抑え込ま しまう 政府 原子力 決別 新た 進む 強い 決意 示す べき</t>
+  </si>
+  <si>
+    <t>首相 温室 効果 ガス 排出 実質 ゼロ する 方針 示し 政府 地球 温暖 対策 強化 急ぐ 焦点 原発 取り扱い 原発 発電 二酸化炭素 排出 ため 積極 活用 求める 早く 始め 排出 削減 口実 さまざま 問題 抱える 原発 依存 続ける 許さ 徹底 省エネ エネ 最大限 導入 取り組み 原発 依存 限り 低減 する 政府 方針 排出 削減 進め方 首相 衆院 会議 そう 答弁 気がかり 同時に 原子力 含め 選択肢 追求 いく 述べ 実質 ゼロ ハードル 高い ため 原発 活用 いく 考え方 示し いえよ 既存 原発 寿命 迎え 引退 いく 懸念 自民党 新設 求める あがっ ところ 政権 原発 増設 建て替え 想定 加藤 官房 長官 慎重 姿勢 変わり 中長期 原子力 政策 明確 示し もらい たい 福島 事故 受け 朝日新聞 将来 原発 依存 社会 めざす べき 主張 古く なっ 原発 順次 止め 徐々に 減らし 事故 リスク なくす 考え方 原発 経済 かなっ 朝日新聞 調査 事故 対策 電力 合計 超え さらに 膨らむ 見通し あたり 費用 稼働 原発 のぼる 対照 エネ 発電 コスト 下がっ おり 原発 減らし 太陽光 風力 広げ いく 開発 進む 小型 モジュール ＳＭＲ コスト 現在 原発 欠点 補う いわ れる 実質 ゼロ 年間 温室 効果 ガス 大幅 削減 できる 握る 普及 時期 定か 技術 期待 時間 浪費 する わけ いか 忘れ なら 原発 最終 ごみ 処分 問題 つきまとう レベル 放射 廃棄 最終 処分 北海道 町村 文献 調査 実施 れる 見込み 問題 解決 長い 年月 かかる 炭素 原発 両立 気候 危機 対策 進め いく それ 進む べき 政権 認識 する べき</t>
+  </si>
+  <si>
+    <t>原発 頼ら 社会 早く 実現 なけれ なら 朝日新聞 東京電力 福島 原発 事故 受け ７月 原発 ゼロ 社会 めざす べき 提言 その後 社説 原発 段階 撤退 する 訴え 主張 根底 再び 事故 起こし たら 日本 社会 立ち行か なく なる 危機 最悪 場合 止め たく 止め られ 福島 事故 原発 恐ろし まざまざ 見せつけ られ 生々しい 記憶 歳月 薄れ いま 原発 決意 確認 たい 険しい 原発 事故 起こせ 後始末 いかに 困難 きわめる 厳しい 現実 苦い 教訓 つい 作業 号機 号機 原子 格納 容器 真上 フタ 濃度 放射 物質 汚染 わかっ 周辺 放射線 人間 時間 いたる 高い 炉心 溶け 落ち 燃料 燃料 ブリ 取り出し 原子力 規制 委員 豊志 委員 作戦 練り直し なる だろ 述べ 号機 トン 燃料 ブリ られる どこ 残っ いまだに 全容 つかめ 新た 見つかっ 号機 濃度 汚染 取り出し 作業 いっそう 難しく なる だろ 工程 取り出し 終える いま 年限 消え しまっ 燃料 ブリ 残っ まま 建屋 設備 解体 撤去 進ま 冷却 注水 ともなっ 濃度 汚染 生じ 続け それ 浄化 処理 たまっ いく 東電 掲げる 完了 不可能 疑念 膨らむ 終着 見え 地元 復興 まま なる まい 原発 事故 地域 社会 崩壊 構築 きわめて 長い 年月 かかる 悲劇 繰り返す わけ いか 神話 許さ カ月 わたっ 安倍 政権 流れ 原発 回帰 逆行 事故 翌年 討論 世論 調査 国民 議論 当時 民主党 政権 年代 原発 ゼロ 打ち出し 年の暮れ 政権 奪還 自公 政策 論争 なく 原発 推進 戻し しまう 古い 原発 減っ 安倍 政権 発電 占める 原発 比率 事故 近い 水準 目標 事故 設け られ 原発 運転 原則 よそ 延長 特例 相次い 認め られ 政権 路線 継承 引き続き 最大限 活用 する 方針 示し 原発 依存 限り 低減 する いい 示さ まま 稼働 進める 姿勢 不誠実 ほか 政府 稼働 原発 規制 基準 世界 最も 厳しい 不安 解消 努め これ 新た 神話 醸成 気がかり 電力 会社 緩み すごせ 福島 事故 当事者 東電 原発 中枢 不正 入室 許し 施設 耐震 報告 怠る 姿勢 問題 かかわら 産業 中心 原発 期待 大きい 原子力 エネルギー 自立 欠か 原発 運転 期間 延ばす べき エネルギー 計画 改定 議論 する 経済 産業 審議 原発 推進 相次い 事故 痛み 忘れ よう 破綻 はたん 燃料 サイクル 推進 ほしい 要望 驚く 済み 燃料 処理 プルトニウム 取り出し 高速 開発 頓挫 ため 消費 望め なか 燃料 サイクル 進め たら 原爆 材料 なり うる プルトニウム 保有 思う よう 減ら 国際 批判 れよ 神話 業界 もたれ あう 事故 変わら 構図 解消 べき エネ 拡大 原子力 注い 再生 エネルギー 水素 炭素 時代 技術 革新 乗り遅れ しまう 地球 温暖 防ぐ コスト エネ 広げる 原発 利用 エネ 拡大 する 一時 もの とどめ できるだけ 早く 原発 シナリオ 固める たっ 原発 引退 増設 建て替え そう 決めれ おのずと 原発 ゼロ 道筋 見え こよ 原子力 撤退 向け 着実 踏み出し 初めて 福島 原発 事故 教訓 結ぶ なる</t>
+  </si>
+  <si>
+    <t>強い 権限 持つ 組織 自ら 厳しく 律する 原子力 規制 委員 規制 ８月 原発 テロ 対策 施設 機密 高い 書類 紛失 明らか １０月 原発 検査 携帯 義務づけ られ 身分 職員 紛失 公表 １１月 福島 放射線 モニタリング 調査 測定 ミス あっ 発表 テロ 対策 書類 外部 流出 少なく 誤っ シュレッダー 処分 高い いう 身分 紛失 原発 構内 入る 運転 免許 確認 説明 緊張 欠け まい テロ よう 悪意 持っ 相手 対処 できる 体制 検証 確認 徹底 不可欠 規制 柏崎 刈羽 原発 テロ 対策 不備 東京電力 姿勢 厳しく 問う 事業 侮ら 検査 厳格 進める ため 一層 正さ なら モニタリング 調査 昨年 ５月 以降 本来 なら 放射線 検出 はず 試料 検出 規制 誤っ 基準 分析 依頼 原因 委託 変える 受注 分析 機関 厳しい 基準 調べ ため 問題 起き なかっ より 長年 誤っ 情報 流さ 続ける なり かね 状況 だっ 東電 福島 原発 処理 放出 計画 れる なか 今回 明らか なっ 失態 放出 モニタリング 調査 信頼 影響 かね 正確 透明 国内外 注視 自覚 べき なる テロ 対策 書類 紛失 昨年度 政策 評価 報告 項目 改善 事項 ひとつ 触れ られ 流出 なく 廃棄 推定 かかわら 機密 高い 文書 廃棄 報告 これ 規制 原則 ひとつ 透明 言える だろ 電力 会社 報告 漏れ 隠蔽 いんぺい ただす 立場 あり なる 積極 公表 求め られる 規制 原発 事故 反省 原子力 管理 立て直し 文化 確立 する ため 設置 独立 強い 権限 持ち 判断 電力 会社 経営 電力 供給 影響 及ぼす 何より 国民 存亡 かかわる 原発 事故 責任 負っ 社会 期待 厳しい 向け られ 忘れ 組織 引き締め 厳格 審査 検査 続け ほしい</t>
+  </si>
+  <si>
+    <t>人類 生命 地球 環境 脅かす 前代未聞 愚行 ほか ロシア 原子力 発電 施設 攻撃 占拠 ただちに 停止 する べき ウクライナ 原子力 関連 施設 相次い ロシア 襲わ 砲撃 管理 置か れる 事態 続い 年代 事故 知ら れる チェルノブイリ 原発 欧州 ザポリージャ 原発 制圧 物質 扱う 研究 施設 戦火 及ん 攻撃 一時 火災 起き ザポリージャ 原発 内部 映像 報じ られ 撃つ やめろ 世界 危うく なる 懸命 職員 訴える 館内 放送 慄然 りつ ぜん する 原子 建屋 無事 だっ いう 安心 でき 原子 冷却 する 設備 壊さ れれ 福島 原発 よう 炉心 溶融 招い 済み 燃料 プール 放射 物質 拡散 する 恐れ あっ 国際 武力 紛争 取り決め ジュネーブ 条約 原発 攻撃 明確 禁じ 惨事 地球 規模 悪影響 広げ 人々 世代 超え 危険 さらさ れる 侵略 戦争 国際 違反 重ねる ロシア 行動 最大限 非難 値する 問題 国連 安保理 開か 原発 攻撃 あまり 由々し ゆえ 懸念 続く ザポリージャ 原発 外部 通信 断た 運転 たち 作業 報告 命じ チェルノブイリ 原発 要員 交代 滞っ 伝え られる 原発 運転 専門 知識 備え 緊急 事態 対応 できる 人員 輪番 態勢 必須 国際 原子力 機関 管理 権限 ウクライナ 戻す よう ロシア 求め 従う べき ロシア 電力 インフラ する 戦術 思惑 だろ さらに プーチン 大統領 ウクライナ 政府 核兵器 開発 もくろん 言い 始め 侵略 正当 する ため 疑惑 作り上げる 狙い しれ 国際 原子力 機関 疑い 否定 今回 事態 受け 原発 抱える 日本 自治体 不安 原発 航空機 衝突 考え 堅牢 造ら れる 戦争 攻撃 れる シナリオ 想定 大国 正規 他国 原発 攻撃 する 異常 事態 施設 拭え リスク 浮き彫り 検討 改めて 深める あり いま 原発 事故 闘い 続け 被爆 日本 国際 議論 先導 する 責任</t>
+  </si>
+  <si>
+    <t>原発 抱える 数々 難題 追いやり 推進 好都合 訴える 結論 あり 議論 政策 転換 進め いい 課題 方策 多角 検討 尽くす 政権 最低限 責務 政府 これ 福島 原発 事故 教訓 踏まえ 原発 限り 依存 低減 する 岸田 首相 ８月 稼働 加速 運転 期間 延長 新型 建設 検討 指示 原発 復権 向け 地ならし 舞台 なっ 経済 産業 審議 総合 資源 エネルギー 調査 年末 結論 出す いう そこ 議論 原発 推進 前提 意見 大勢 占める 原発 動かせ 電力 供給 安定 つながる 温室 効果 ガス 出さ 炭素 役立つ 利点 強調 ほとんど 早速 政策 支援 強化 検討 原発 事故 対策 もちろん 放射 廃棄 処分 燃料 サイクル 行き詰まり 将来 経済 低下 長年 懸案 山積み 表面 議論 終始 中身 深まら なぜ これ 議論 狭く なっ しまう 審議 議題 人選 決め 委員 多く 原子力 研究 電力 業界 関わり 深い 有識者 経済 原発 懐疑 視点 意見 述べる ごく 一部 これ 調査 審議 できる 極めて 疑わしい 通り 議論 推進 官庁 提案 お墨付き 与える 役回り なる 審議 慎重 委員 国民 各層 コミュニケーション 結果 あり オープン 議論 意見 政府 指摘 真摯 しんし 受け止め 熟議 できる 環境 整え なけれ なら カ月 方針 決定 あまりに エネルギー 問題 激動期 あり 複雑 増し 原発 位置づけ 電気 使い方 将来 する テーマ 安定 供給 炭素 効果 なく 課題 コスト リスク 選択肢 比較 さまざま 観点 検討 重ねる 欠か 審議 含め さまざま 専門 バランス よく 集め 透明 確保 議論 なる かつて 産官学 原子力 ムラ 政策 主導 する なか 神話 広がり 惨事 行き着い 異見 排除 閉鎖 議論 もたらす 深く 顧みる べき</t>
+  </si>
+  <si>
+    <t>原発 最大限 活用 向け 関連 法案 審議 始まっ 含ま れる 原子力 改正 原発 使い 続ける ため 責務 施策 事細か 書き込み 将来 推進 一辺倒 突き進む よう 内容 改正 反対 する 戦後 原子力 開発 議員 立法 制定 原子力 利用 推進 掲げる 一方 平和 目的 限り 民主 自主 公開 原則 置い 施策 根拠 原子力 憲法 言わ れる 改正 条文 大幅 増やし 東京電力 福島 原発 事故 真摯 しんし 反省 原子力 事故 発生 常に 想定 努力 払う 記述 事故 遅ればせながら 評価 できる その後 続く あっ 原発 利用 推進 いく 姿勢 示す 受け取れる 内容 ほとんど 施策 原発 関係 技術 開発 促進 人材 育成 産業 基盤 維持 強化 記述 並ぶ さらに 原発 事業 安定 事業 行える 環境 整備 する 趣旨 項目 あり 前置き 電気 事業 係る 制度 抜本 改革 実施 状況 記し ため 資金 確保 電力 自由 原発 採算 なっ 段階 事業 継続 支え 続ける 宣言 する なら 済み 燃料 処理 着実 実施 図る 書き込ん 処理 前提 なる 燃料 サイクル 政策 中核 高速 計画 頓挫 行き詰まり 明らか それ 固執 する 姿勢 盛り込む 理解 でき 利用 促進 並ぶ 背景 改正 電気 事業 改正 束ね 法案 出さ 構図 岸田 政権 原発 運転 期間 規制 観点 従来 確保 利用 政策 移し 長期 運転 しよ 電気 事業 改正 内容 含ま 改正 平仄 ひょう そく 合わせ 記述 しっぽ 振り回し 実態 エネルギー 情勢 再生 エネルギー 含め 関連 技術 変革期 あり 原発 めぐる 環境 将来 大きく 変わり うる 次元 原発 いっそう 推進 固定 方向 見直す ハードル 上げれ 禍根 残す 原発 復権 ため 様変わり せる よう 断じて 許さ</t>
+  </si>
+  <si>
+    <t>改めて 問題 解決 する 難し 痛感 する 原発 出る レベル 放射 廃棄 ごみ 最終 処分 めぐり 長崎 対馬 比田勝 市長 調査 受け入れ 方針 市議会 先月 中旬 選定 プロセス 起点 なる 文献 調査 受け入れ 求める 請願 採択 市長 判断 注目 市長 将来 向け 熟慮 結果 述べ 計画 進める 経済 産業 原子力 発電 環境 整備 機構 ＮＵＭＯ 決断 重く 受け止め 理由 謙虚 傾ける 地元 調査 伴う 交付 期待 一方 漁協 反対 請願 出し 二分 する 事態 なっ 市長 会見 今回 判断 至っ 市民 分断 深め たく 気持ち 表れ 語っ 住民 対立 分断 二つ 町村 文献 調査 進む 北海道 聞こえる 一つ 寿都 町長 調査 賛否 めぐり 二分 周辺 放射 物質 持ち込ま ぬき 条例 つくっ 調査 伴う 交付 辞退 自治体 対馬 比田勝 市長 いったん 文献 調査 入っ たら 断る 難しい 話し ＮＵＭＯ 首長 反対 すれ 段階 進ま いう 自治体 交付 もらっ しまえ 止まら なく なる 不信 根強く みる べき 処分 懸念 示さ 日本 火山 地震 多く 地元 不安 疑問 感じる 無理 朝日新聞 社説 最終 処分 計画 そもそも 目的 原子力 利用 推進 問題 指摘 原発 運転 続ける 限り 廃棄 増え 地元 際限 なく ごみ 持ち込ま れる 懸念 拭え 計画 実現 する 見通し 燃料 サイクル 依拠 見過ごせ 原発 推進 かじ 切っ 岸田 政権 もと 疑念 ますます 強まっ すでに 済み 燃料 する 処分 それ 過疎 財政難 抱え 特定 地域 背負う べき 問題 電力 恩恵 受け 都会 含め 国民 当事者 調査 地域 聞こえ くる 切実 原発 ツケ めぐる 負担 公平 もう 一つ 問題 投げかけ</t>
+  </si>
+  <si>
+    <t>原発 生み 続ける ごみ どう 処分 する 難問 見つから 直視 べき 原発 出る レベル 放射 廃棄 地下 メートル 深い 地層 埋める 最終 処分 めぐり 北海道 町村 文献 調査 結果 公表 寿都 周辺 断層 神恵内 ほとんど 火山 圏内 割れ やすい 岩石 広く 分布 する ボーリング 含む 調査 進める 候補 既存 資料 結論 理解 できる 現在 科学 知見 限界 あり 自然 災害 想定 超える 先月 能登半島 地震 複数 断層 連動 られ 規模 隆起 確認 廃棄 閉じ込める 場所 探す 慎重 分析 検討 求め られる 現在 最終 処分 計画 地球 科学 専門 有志 昨年 地殻 変動 激しい 日本 適切 場所 選ぶ 現状 不可能 指摘 する 声明 出し 廃棄 ガラス 固め 金属 粘土 覆う 人工 バリア 疑問 投げかけ むろん 現行 計画 海外 事例 参考 さまざま 専門 意見 踏まえ 作ら 日本 ふさわしい やり方 継続 議論 神恵内 昨年 １１月 声明 呼びかけ人 招い シンポジウム 開か 事業 進める 原子力 発電 環境 整備 機構 ＮＵＭＯ 考え方 違い 浮き彫り なり 来場 アンケート とても 役に立っ 半数 占め 様々 視点 議論 深め られる 積極 設ける べき 経済 産業 ＮＵＭＯ 町村 説明 開い 後続 自治体 現れ 長崎 対馬 議会 文献 調査 受け入れ 求める 請願 採択 市長 昨秋 受け入れ 方針 いったん 調査 入っ 交付 もらえ 計画 止まら なく なる 懸念 あっ いう 原発 復権 前のめり 岸田 政権 昨年 政府 計画 改定 地方 働きかけ 強める 方針 示し ＮＵＭＯ 電力 会社 合同 全国 行脚 始め １月 市町村 首長 訪ね いう 自治体 公表 住民 根強い 不信 警戒 秘密 行動 だろ 疑問 懸念 向き合わ なけれ 何事 進ま 透明 高め いく べき ページ ＴＯＰ No 00003 2024 18 朝刊 オピニオン 012 ページ 00985 文字 社説 地震 原発 幅広い 視点 教訓 導け 能登半島 地震 原子力 防災 多く 課題 突きつけ 電力 会社 政府 自治体 幅広い 視野 検証 教訓 考える 北陸電力 志賀 原発 済み 燃料 プール こぼれ 冷却 ポンプ 一時 止まっ 外部 電源 受ける 変圧 損傷 漏れ 周辺 自治体 設け 放射線 測定 設備 一部 データ 送れ なく なっ いずれ 原因 影響 詳細 調べ なけれ なら 地震 津波 影響 北陸電力 当初 敷地 海水 引き込ん 水槽 水位 変動 確認 でき なかっ メートル 上昇 変圧 漏れ 最初 発表 だっ 相次ぐ 訂正 経済 産業 正確 情報 発信 指示 慎重 なる あまり 発表 遅れ なら 情報 住民 不安 与え 被害 過小 評価 結果 招き かね 電力 会社 含め 教訓 べき だろ 志賀 原発 敷地 断層 評価 めぐり 号機 稼働 審査 長引い 有識者 会合 断層 解釈 する 評価 北陸電力 反論 原子力 規制 委員 昨年 同社 見解 認め ところ だっ 規制 今回 地震 知見 収集 する よう 原子力 規制 指示 地震 審査 担当 する 委員 いくつ 断層 連動 動い 専門 研究 フォロー 審査 いかす 発言 おり 丁寧 分析 検討 求め られる 断層 地震 連動 揺れ 想定 施設 影響 今回 地震 浮き彫り 課題 志賀 原発 とどまら 全国 原発 多かれ 少なかれ 共通 する 今回 震源 近く かつて 珠洲 原発 検討 教訓 引き出し 規制 防災 役立て なけれ なら 今回 地震 道路 寸断 半島 孤立 改めて 問題 なっ 四国電力 伊方 原発 東北電力 女川 原発 半島 原発 事故 起き 場合 避難 救援 妨げ かね 家屋 激しい 損壊 状況 みれ 放射線 避ける ため 屋内 避難 でき 恐れ 規制 原子力 災害 対策 指針 見直し 検討 する いう 緊急 対応 避難 対策 課題 掘り下げ ほしい 地震 大国 原発 リスク 改めて あらわ なっ 政府 原発 活用 前のめり 姿勢 改める べき</t>
   </si>
 </sst>
 </file>
